--- a/fuzzy-ts-opt/Results/Results.xlsx
+++ b/fuzzy-ts-opt/Results/Results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A5716-10E0-4983-AC81-A4F4196D1653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A856B-D3B2-4AC8-95E3-683496F536CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelas finalizads" sheetId="1" r:id="rId1"/>
     <sheet name="Comparação" sheetId="2" r:id="rId2"/>
     <sheet name="Normalização" sheetId="3" r:id="rId3"/>
+    <sheet name="Tempo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="60">
   <si>
     <t>MSE</t>
   </si>
@@ -121,9 +122,6 @@
     <t>IGPOG</t>
   </si>
   <si>
-    <t>IDHBR</t>
-  </si>
-  <si>
     <t>PIBPC-75</t>
   </si>
   <si>
@@ -149,6 +147,75 @@
   </si>
   <si>
     <t>ST</t>
+  </si>
+  <si>
+    <t>PIBPC</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>1980 - 2001</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>População do Azerbaijão</t>
+  </si>
+  <si>
+    <t>Variação do PIB brasileiro</t>
+  </si>
+  <si>
+    <t>IGP - Oferta Geral</t>
+  </si>
+  <si>
+    <t>PIB per capta brasileiro</t>
+  </si>
+  <si>
+    <t>1990 - 2013</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>1997 - 2020</t>
+  </si>
+  <si>
+    <t>1995 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             fuzzy       arima         ets         ann</t>
+  </si>
+  <si>
+    <t>MSE   1273.7573453 439.5354831 947.8682819 497.6112721</t>
+  </si>
+  <si>
+    <t>MAPE     0.5762627   0.3734412   0.5376565   0.3313633</t>
+  </si>
+  <si>
+    <t>NRMSE    0.7384666   0.4337949   0.6370323   0.4317542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fuzzy arima  ets  ann</t>
+  </si>
+  <si>
+    <t>1 209.83  0.09 0.05 0.59</t>
   </si>
 </sst>
 </file>
@@ -157,10 +224,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +237,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,7 +377,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,7 +389,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,9 +437,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O41"/>
+  <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:N41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +756,10 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -683,14 +771,14 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>2</v>
@@ -702,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -722,7 +810,7 @@
       <c r="G3" s="27">
         <v>3084.1653035929999</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="43" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -764,24 +852,24 @@
       <c r="G4" s="11">
         <v>6.6392619999999999E-3</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="28">
-        <f t="shared" ref="K4:K17" si="1">(D4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
+        <f t="shared" ref="K4:K11" si="1">(D4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
         <v>0.13000253066553055</v>
       </c>
       <c r="L4" s="28">
-        <f t="shared" ref="L4:L17" si="2">(E4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
+        <f t="shared" ref="L4:L11" si="2">(E4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
         <v>0</v>
       </c>
       <c r="M4" s="28">
-        <f t="shared" ref="M4:M17" si="3">(F4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
+        <f t="shared" ref="M4:M11" si="3">(F4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
         <v>1</v>
       </c>
       <c r="N4" s="28">
-        <f t="shared" ref="N4:N17" si="4">(G4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
+        <f t="shared" ref="N4:N11" si="4">(G4-MIN($D4:$G4))/(MAX($D4:$G4)-MIN($D4:$G4))</f>
         <v>0.40361823567518867</v>
       </c>
     </row>
@@ -802,7 +890,7 @@
       <c r="G5" s="25">
         <v>0.50187852700000002</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
@@ -840,7 +928,7 @@
       <c r="G6" s="24">
         <v>2.5039400999999999</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -882,7 +970,7 @@
       <c r="G7" s="11">
         <v>1.2300966</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="3" t="s">
         <v>1</v>
       </c>
@@ -920,7 +1008,7 @@
       <c r="G8" s="25">
         <v>0.60842339999999995</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="9" t="s">
         <v>7</v>
       </c>
@@ -958,14 +1046,14 @@
       <c r="G9" s="26">
         <v>1874.60614381</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="43" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="1"/>
+        <f>(D9-MIN($D9:$G9))/(MAX($D9:$G9)-MIN($D9:$G9))</f>
         <v>0</v>
       </c>
       <c r="L9" s="26">
@@ -1000,7 +1088,7 @@
       <c r="G10" s="11">
         <v>5.9627439999999997E-2</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1126,7 @@
       <c r="G11" s="25">
         <v>0.66166586000000005</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1065,77 +1153,77 @@
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>1.791621E-3</v>
+        <v>0.12298657</v>
       </c>
       <c r="E12" s="24">
-        <v>3.2008929999999998E-3</v>
+        <v>6.2605629999999995E-2</v>
       </c>
       <c r="F12" s="24">
-        <v>6.8562909999999996E-3</v>
+        <v>0.15809003999999999</v>
       </c>
       <c r="G12" s="24">
-        <v>1.7700009999999999E-2</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="28">
-        <f t="shared" si="2"/>
-        <v>8.8586719874652289E-2</v>
-      </c>
-      <c r="M12" s="28">
-        <f t="shared" si="3"/>
-        <v>0.31836473196626008</v>
-      </c>
-      <c r="N12" s="28">
-        <f t="shared" si="4"/>
+        <v>1.086028</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <f>(D12-MIN($D12:$G12))/(MAX($D12:$G12)-MIN($D12:$G12))</f>
+        <v>5.8999042594701158E-2</v>
+      </c>
+      <c r="L12" s="26">
+        <f>(E12-MIN($D12:$G12))/(MAX($D12:$G12)-MIN($D12:$G12))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <f>(F12-MIN($D12:$G12))/(MAX($D12:$G12)-MIN($D12:$G12))</f>
+        <v>9.3299123410796644E-2</v>
+      </c>
+      <c r="N12" s="26">
+        <f>(G12-MIN($D12:$G12))/(MAX($D12:$G12)-MIN($D12:$G12))</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="11">
-        <v>6.5852249000000002E-2</v>
+        <v>2.9499689999999999E-2</v>
       </c>
       <c r="E13" s="11">
-        <v>8.3061072E-2</v>
+        <v>1.603868E-2</v>
       </c>
       <c r="F13" s="11">
-        <v>0.14141957399999999</v>
+        <v>2.735545E-2</v>
       </c>
       <c r="G13" s="11">
-        <v>0.23631340000000001</v>
-      </c>
-      <c r="I13" s="30"/>
+        <v>8.7929460000000001E-2</v>
+      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(D13-MIN($D13:$G13))/(MAX($D13:$G13)-MIN($D13:$G13))</f>
+        <v>0.18724250870556697</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1009545160234193</v>
+        <f>(E13-MIN($D13:$G13))/(MAX($D13:$G13)-MIN($D13:$G13))</f>
+        <v>0</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="3"/>
-        <v>0.44331112723743127</v>
+        <f>(F13-MIN($D13:$G13))/(MAX($D13:$G13)-MIN($D13:$G13))</f>
+        <v>0.15741615266936873</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="4"/>
+        <f>(G13-MIN($D13:$G13))/(MAX($D13:$G13)-MIN($D13:$G13))</f>
         <v>1</v>
       </c>
     </row>
@@ -1145,654 +1233,467 @@
         <v>7</v>
       </c>
       <c r="D14" s="25">
-        <v>0.70465490200000003</v>
+        <v>0.92615506999999997</v>
       </c>
       <c r="E14" s="25">
-        <v>0.94186556099999996</v>
+        <v>0.66078713</v>
       </c>
       <c r="F14" s="25">
-        <v>1.3784721289999999</v>
+        <v>1.05004309</v>
       </c>
       <c r="G14" s="25">
-        <v>1.8083999100000001</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="9" t="s">
+        <v>2.5123767099999998</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21491436634429598</v>
-      </c>
-      <c r="M14" s="28">
-        <f t="shared" si="3"/>
-        <v>0.61048269493056662</v>
-      </c>
-      <c r="N14" s="28">
-        <f t="shared" si="4"/>
+      <c r="K14" s="29">
+        <f>(D14-MIN($D14:$G14))/(MAX($D14:$G14)-MIN($D14:$G14))</f>
+        <v>0.14331898540928276</v>
+      </c>
+      <c r="L14" s="29">
+        <f>(E14-MIN($D14:$G14))/(MAX($D14:$G14)-MIN($D14:$G14))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <f>(F14-MIN($D14:$G14))/(MAX($D14:$G14)-MIN($D14:$G14))</f>
+        <v>0.21022799231782241</v>
+      </c>
+      <c r="N14" s="29">
+        <f>(G14-MIN($D14:$G14))/(MAX($D14:$G14)-MIN($D14:$G14))</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.12298657</v>
-      </c>
-      <c r="E15" s="24">
-        <v>6.2605629999999995E-2</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0.15809003999999999</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1.086028</v>
-      </c>
-      <c r="I15" s="31" t="s">
+      <c r="J15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="34">
+        <f>AVERAGE(K3:K14)</f>
+        <v>0.10837318580850049</v>
+      </c>
+      <c r="L15" s="34">
+        <f>AVERAGE(L3:L14)</f>
+        <v>0.25989215720153136</v>
+      </c>
+      <c r="M15" s="34">
+        <f>AVERAGE(M3:M14)</f>
+        <v>0.30748549624943045</v>
+      </c>
+      <c r="N15" s="34">
+        <f>AVERAGE(N3:N14)</f>
+        <v>0.71858588163152881</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="34">
+        <f>_xlfn.STDEV.P(K3:K14)</f>
+        <v>0.11780832218672878</v>
+      </c>
+      <c r="L16" s="34">
+        <f>_xlfn.STDEV.P(L3:L14)</f>
+        <v>0.42773295996510097</v>
+      </c>
+      <c r="M16" s="34">
+        <f>_xlfn.STDEV.P(M3:M14)</f>
+        <v>0.40439577410018446</v>
+      </c>
+      <c r="N16" s="34">
+        <f>_xlfn.STDEV.P(N3:N14)</f>
+        <v>0.2933029210555721</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+      <c r="J17" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="35">
+        <f>(K16/K15)*100</f>
+        <v>108.70615393267163</v>
+      </c>
+      <c r="L17" s="35">
+        <f t="shared" ref="L17:N17" si="5">(L16/L15)*100</f>
+        <v>164.58094179172122</v>
+      </c>
+      <c r="M17" s="35">
+        <f t="shared" si="5"/>
+        <v>131.51702406546713</v>
+      </c>
+      <c r="N17" s="35">
+        <f t="shared" si="5"/>
+        <v>40.816682953697359</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="26">
-        <f t="shared" si="1"/>
-        <v>5.8999042594701158E-2</v>
-      </c>
-      <c r="L15" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="26">
-        <f t="shared" si="3"/>
-        <v>9.3299123410796644E-2</v>
-      </c>
-      <c r="N15" s="26">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2.9499689999999999E-2</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1.603868E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2.735545E-2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>8.7929460000000001E-2</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18724250870556697</v>
-      </c>
-      <c r="L16" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="28">
-        <f t="shared" si="3"/>
-        <v>0.15741615266936873</v>
-      </c>
-      <c r="N16" s="28">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <f>(K3*(0.8-0.2))+0.2</f>
+        <v>0.2493161938531098</v>
+      </c>
+      <c r="L21" s="26">
+        <f>(L3*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="26">
+        <f>(M3*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="26">
+        <f>(N3*(0.8-0.2))+0.2</f>
+        <v>0.37446113163501049</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="28">
+        <f>(K4*(0.8-0.2))+0.2</f>
+        <v>0.27800151839931836</v>
+      </c>
+      <c r="L22" s="28">
+        <f>(L4*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="28">
+        <f>(M4*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="28">
+        <f>(N4*(0.8-0.2))+0.2</f>
+        <v>0.44217094140511326</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="25">
-        <v>0.92615506999999997</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.66078713</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1.05004309</v>
-      </c>
-      <c r="G17" s="25">
-        <v>2.5123767099999998</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="1"/>
-        <v>0.14331898540928276</v>
-      </c>
-      <c r="L17" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="29">
-        <f t="shared" si="3"/>
-        <v>0.21022799231782241</v>
-      </c>
-      <c r="N17" s="29">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="34">
-        <f>AVERAGE(K3:K17)</f>
-        <v>8.6698548646800391E-2</v>
-      </c>
-      <c r="L18" s="34">
-        <f t="shared" ref="L18:N18" si="5">AVERAGE(L3:L17)</f>
-        <v>0.23487743257738292</v>
-      </c>
-      <c r="M18" s="34">
-        <f t="shared" si="5"/>
-        <v>0.33746563394182816</v>
-      </c>
-      <c r="N18" s="34">
-        <f t="shared" si="5"/>
-        <v>0.77486870530522312</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="34">
-        <f>_xlfn.STDEV.P(K3:K17)</f>
-        <v>0.11393945850989058</v>
-      </c>
-      <c r="L19" s="34">
-        <f t="shared" ref="L19:N19" si="6">_xlfn.STDEV.P(L3:L17)</f>
-        <v>0.38667035935683536</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" si="6"/>
-        <v>0.37052426260564991</v>
-      </c>
-      <c r="N19" s="34">
-        <f t="shared" si="6"/>
-        <v>0.28546857578816187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="4"/>
-      <c r="J20" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="35">
-        <f>(K19/K18)*100</f>
-        <v>131.42026053292591</v>
-      </c>
-      <c r="L20" s="35">
-        <f t="shared" ref="L20:N20" si="7">(L19/L18)*100</f>
-        <v>164.62644159286893</v>
-      </c>
-      <c r="M20" s="35">
-        <f t="shared" si="7"/>
-        <v>109.7961467298683</v>
-      </c>
-      <c r="N20" s="35">
-        <f t="shared" si="7"/>
-        <v>36.840896249089703</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K23" s="29">
+        <f>(K5*(0.8-0.2))+0.2</f>
+        <v>0.28856666495414496</v>
+      </c>
+      <c r="L23" s="29">
+        <f>(L5*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="29">
+        <f>(M5*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="29">
+        <f>(N5*(0.8-0.2))+0.2</f>
+        <v>0.39463882509109005</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I24" s="8"/>
       <c r="J24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="26">
-        <f>(K3*(0.8-0.2))+0.2</f>
-        <v>0.2493161938531098</v>
+        <f>(K6*(0.8-0.2))+0.2</f>
+        <v>0.22763688736670865</v>
       </c>
       <c r="L24" s="26">
-        <f>(L3*(0.8-0.2))+0.2</f>
+        <f>(L6*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="26">
+        <f>(M6*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="M24" s="26">
-        <f>(M3*(0.8-0.2))+0.2</f>
+      <c r="N24" s="26">
+        <f>(N6*(0.8-0.2))+0.2</f>
+        <v>0.58327778780078043</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="28">
+        <f>(K7*(0.8-0.2))+0.2</f>
+        <v>0.46637765377617324</v>
+      </c>
+      <c r="L25" s="28">
+        <f>(L7*(0.8-0.2))+0.2</f>
         <v>0.8</v>
       </c>
-      <c r="N24" s="26">
-        <f>(N3*(0.8-0.2))+0.2</f>
-        <v>0.37446113163501049</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="28">
-        <f>(K4*(0.8-0.2))+0.2</f>
-        <v>0.27800151839931836</v>
-      </c>
-      <c r="L25" s="28">
-        <f>(L4*(0.8-0.2))+0.2</f>
+      <c r="M25" s="28">
+        <f>(M7*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="M25" s="28">
-        <f>(M4*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
       <c r="N25" s="28">
-        <f>(N4*(0.8-0.2))+0.2</f>
-        <v>0.44217094140511326</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <f>(N7*(0.8-0.2))+0.2</f>
+        <v>0.50818694254997554</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I26" s="10"/>
       <c r="J26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="29">
-        <f>(K5*(0.8-0.2))+0.2</f>
-        <v>0.28856666495414496</v>
-      </c>
-      <c r="L26" s="29">
-        <f>(L5*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="M26" s="29">
-        <f>(M5*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-      <c r="N26" s="29">
-        <f>(N5*(0.8-0.2))+0.2</f>
-        <v>0.39463882509109005</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="8"/>
-      <c r="J27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="26">
-        <f>(K6*(0.8-0.2))+0.2</f>
-        <v>0.22763688736670865</v>
-      </c>
-      <c r="L27" s="26">
-        <f>(L6*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-      <c r="M27" s="26">
-        <f>(M6*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="N27" s="26">
-        <f>(N6*(0.8-0.2))+0.2</f>
-        <v>0.58327778780078043</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="28">
-        <f>(K7*(0.8-0.2))+0.2</f>
-        <v>0.46637765377617324</v>
-      </c>
-      <c r="L28" s="28">
-        <f>(L7*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-      <c r="M28" s="28">
-        <f>(M7*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="N28" s="28">
-        <f>(N7*(0.8-0.2))+0.2</f>
-        <v>0.50818694254997554</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="10"/>
-      <c r="J29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="29">
         <f>(K8*(0.8-0.2))+0.2</f>
         <v>0.23665169744601822</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L26" s="29">
         <f>(L8*(0.8-0.2))+0.2</f>
         <v>0.8</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M26" s="29">
         <f>(M8*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N26" s="29">
         <f>(N8*(0.8-0.2))+0.2</f>
         <v>0.47108271926503836</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="8"/>
-      <c r="J30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="28">
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="31"/>
+      <c r="J27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
         <f>(K9*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L27" s="26">
         <f>(L9*(0.8-0.2))+0.2</f>
         <v>0.21062857278077296</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M27" s="26">
         <f>(M9*(0.8-0.2))+0.2</f>
         <v>0.23677192619493795</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N27" s="26">
         <f>(N9*(0.8-0.2))+0.2</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I31" s="18" t="s">
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="28">
+      <c r="J28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="28">
         <f>(K10*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L28" s="28">
         <f>(L10*(0.8-0.2))+0.2</f>
         <v>0.24051135398826201</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M28" s="28">
         <f>(M10*(0.8-0.2))+0.2</f>
         <v>0.233745517274728</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N28" s="28">
         <f>(N10*(0.8-0.2))+0.2</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="32"/>
+      <c r="J29" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="29">
+        <f>(K11*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="29">
+        <f>(L11*(0.8-0.2))+0.2</f>
+        <v>0.22008360508199065</v>
+      </c>
+      <c r="M29" s="29">
+        <f>(M11*(0.8-0.2))+0.2</f>
+        <v>0.26681216848744077</v>
+      </c>
+      <c r="N29" s="29">
+        <f>(N11*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="30"/>
+      <c r="J30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="28">
+        <f>(K12*(0.8-0.2))+0.2</f>
+        <v>0.2353994255568207</v>
+      </c>
+      <c r="L30" s="28">
+        <f>(L12*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="28">
+        <f>(M12*(0.8-0.2))+0.2</f>
+        <v>0.25597947404647803</v>
+      </c>
+      <c r="N30" s="28">
+        <f>(N12*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="28">
+        <f>(K13*(0.8-0.2))+0.2</f>
+        <v>0.3123455052233402</v>
+      </c>
+      <c r="L31" s="28">
+        <f>(L13*(0.8-0.2))+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M31" s="28">
+        <f>(M13*(0.8-0.2))+0.2</f>
+        <v>0.29444969160162127</v>
+      </c>
+      <c r="N31" s="28">
+        <f>(N13*(0.8-0.2))+0.2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I32" s="10"/>
       <c r="J32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="28">
-        <f>(K11*(0.8-0.2))+0.2</f>
+        <f>(K14*(0.8-0.2))+0.2</f>
+        <v>0.28599139124556966</v>
+      </c>
+      <c r="L32" s="28">
+        <f>(L14*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="L32" s="28">
-        <f>(L11*(0.8-0.2))+0.2</f>
-        <v>0.22008360508199065</v>
-      </c>
       <c r="M32" s="28">
-        <f>(M11*(0.8-0.2))+0.2</f>
-        <v>0.26681216848744077</v>
+        <f>(M14*(0.8-0.2))+0.2</f>
+        <v>0.32613679539069351</v>
       </c>
       <c r="N32" s="28">
-        <f>(N11*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="8"/>
-      <c r="J33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" s="26">
-        <f>(K12*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="L33" s="26">
-        <f>(L12*(0.8-0.2))+0.2</f>
-        <v>0.25315203192479141</v>
-      </c>
-      <c r="M33" s="26">
-        <f>(M12*(0.8-0.2))+0.2</f>
-        <v>0.39101883917975611</v>
-      </c>
-      <c r="N33" s="26">
-        <f>(N12*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="28">
-        <f>(K13*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="L34" s="28">
-        <f>(L13*(0.8-0.2))+0.2</f>
-        <v>0.2605727096140516</v>
-      </c>
-      <c r="M34" s="28">
-        <f>(M13*(0.8-0.2))+0.2</f>
-        <v>0.46598667634245883</v>
-      </c>
-      <c r="N34" s="28">
-        <f>(N13*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="29">
-        <f>(K14*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="L35" s="29">
-        <f>(L14*(0.8-0.2))+0.2</f>
-        <v>0.32894861980657764</v>
-      </c>
-      <c r="M35" s="29">
-        <f>(M14*(0.8-0.2))+0.2</f>
-        <v>0.56628961695834001</v>
-      </c>
-      <c r="N35" s="29">
         <f>(N14*(0.8-0.2))+0.2</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="8"/>
-      <c r="J36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="28">
-        <f>(K15*(0.8-0.2))+0.2</f>
-        <v>0.2353994255568207</v>
-      </c>
-      <c r="L36" s="28">
-        <f>(L15*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="M36" s="28">
-        <f>(M15*(0.8-0.2))+0.2</f>
-        <v>0.25597947404647803</v>
-      </c>
-      <c r="N36" s="28">
-        <f>(N15*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="28">
-        <f>(K16*(0.8-0.2))+0.2</f>
-        <v>0.3123455052233402</v>
-      </c>
-      <c r="L37" s="28">
-        <f>(L16*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="M37" s="28">
-        <f>(M16*(0.8-0.2))+0.2</f>
-        <v>0.29444969160162127</v>
-      </c>
-      <c r="N37" s="28">
-        <f>(N16*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="10"/>
-      <c r="J38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="28">
-        <f>(K17*(0.8-0.2))+0.2</f>
-        <v>0.28599139124556966</v>
-      </c>
-      <c r="L38" s="28">
-        <f>(L17*(0.8-0.2))+0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="M38" s="28">
-        <f>(M17*(0.8-0.2))+0.2</f>
-        <v>0.32613679539069351</v>
-      </c>
-      <c r="N38" s="28">
-        <f>(N17*(0.8-0.2))+0.2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I39" s="40"/>
-      <c r="J39" s="38" t="s">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="40"/>
+      <c r="J33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="39">
+        <f>AVERAGE(K21:K32)</f>
+        <v>0.26502391148510035</v>
+      </c>
+      <c r="L33" s="39">
+        <f>AVERAGE(L21:L32)</f>
+        <v>0.3559352943209188</v>
+      </c>
+      <c r="M33" s="39">
+        <f>AVERAGE(M21:M32)</f>
+        <v>0.3844912977496584</v>
+      </c>
+      <c r="N33" s="39">
+        <f>AVERAGE(N21:N32)</f>
+        <v>0.63115152897891724</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="41"/>
+      <c r="J34" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K39" s="39">
-        <f>AVERAGE(K24:K38)</f>
-        <v>0.25201912918808028</v>
-      </c>
-      <c r="L39" s="39">
-        <f t="shared" ref="L39" si="8">AVERAGE(L24:L38)</f>
-        <v>0.34092645954642975</v>
-      </c>
-      <c r="M39" s="39">
-        <f t="shared" ref="M39" si="9">AVERAGE(M24:M38)</f>
-        <v>0.40247938036509706</v>
-      </c>
-      <c r="N39" s="39">
-        <f t="shared" ref="N39" si="10">AVERAGE(N24:N38)</f>
-        <v>0.66492122318313396</v>
-      </c>
-    </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I40" s="41"/>
-      <c r="J40" s="36" t="s">
+      <c r="K34" s="37">
+        <f>_xlfn.STDEV.P(K21:K32)</f>
+        <v>7.0684993312037286E-2</v>
+      </c>
+      <c r="L34" s="37">
+        <f>_xlfn.STDEV.P(L21:L32)</f>
+        <v>0.25663977597906079</v>
+      </c>
+      <c r="M34" s="37">
+        <f>_xlfn.STDEV.P(M21:M32)</f>
+        <v>0.24263746446011064</v>
+      </c>
+      <c r="N34" s="37">
+        <f>_xlfn.STDEV.P(N21:N32)</f>
+        <v>0.17598175263334387</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="42"/>
+      <c r="J35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="37">
-        <f>_xlfn.STDEV.P(K24:K38)</f>
-        <v>6.8363675105934302E-2</v>
-      </c>
-      <c r="L40" s="37">
-        <f t="shared" ref="L40:N40" si="11">_xlfn.STDEV.P(L24:L38)</f>
-        <v>0.23200221561410134</v>
-      </c>
-      <c r="M40" s="37">
-        <f t="shared" si="11"/>
-        <v>0.22231455756338994</v>
-      </c>
-      <c r="N40" s="37">
-        <f t="shared" si="11"/>
-        <v>0.17128114547289741</v>
-      </c>
-    </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I41" s="42"/>
-      <c r="J41" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="35">
-        <f>(K40/K39)*100</f>
-        <v>27.126383352794985</v>
-      </c>
-      <c r="L41" s="35">
-        <f t="shared" ref="L41" si="12">(L40/L39)*100</f>
-        <v>68.05051620890859</v>
-      </c>
-      <c r="M41" s="35">
-        <f t="shared" ref="M41" si="13">(M40/M39)*100</f>
-        <v>55.23626014374301</v>
-      </c>
-      <c r="N41" s="35">
-        <f t="shared" ref="N41" si="14">(N40/N39)*100</f>
-        <v>25.759614748486197</v>
+      <c r="K35" s="35">
+        <f>(K34/K33)*100</f>
+        <v>26.671175787853844</v>
+      </c>
+      <c r="L35" s="35">
+        <f t="shared" ref="L35" si="6">(L34/L33)*100</f>
+        <v>72.102929963351414</v>
+      </c>
+      <c r="M35" s="35">
+        <f t="shared" ref="M35" si="7">(M34/M33)*100</f>
+        <v>63.106100418972666</v>
+      </c>
+      <c r="N35" s="35">
+        <f t="shared" ref="N35" si="8">(N34/N33)*100</f>
+        <v>27.882646964041864</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1802,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582570C-A3E6-4117-8056-4B8BD9BB6A97}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2127,9 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2157,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>14.0186271</v>
@@ -2286,7 +2189,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0.52606450000000005</v>
@@ -2318,7 +2221,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>1.4702377</v>
@@ -2349,6 +2252,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -2375,8 +2281,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
       <c r="B23">
         <v>24.05</v>
@@ -2813,15 +2719,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26D65B1-AD25-42B0-8F8D-BA40125E61D7}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:K43"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="18"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2877,7 +2784,7 @@
         <v>8.2193656421849615E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:K5" si="0">(C3-MIN($B$3:$E$3))/(MAX($B$3:$E$3)-MIN($B$3:$E$3))</f>
+        <f t="shared" ref="I3:J3" si="0">(C3-MIN($B$3:$E$3))/(MAX($B$3:$E$3)-MIN($B$3:$E$3))</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -3071,19 +2978,19 @@
         <v>1.2300966</v>
       </c>
       <c r="H12" s="1">
-        <f>(B12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
+        <f t="shared" ref="H12:J13" si="3">(B12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
         <v>0.44396275629362197</v>
       </c>
       <c r="I12" s="1">
-        <f>(C12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <f>(D12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K13" si="3">(E12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
+        <f t="shared" ref="K12:K13" si="4">(E12-MIN($B12:$E12))/(MAX($B12:$E12)-MIN($B12:$E12))</f>
         <v>0.51364490424995912</v>
       </c>
     </row>
@@ -3104,19 +3011,19 @@
         <v>0.60842339999999995</v>
       </c>
       <c r="H13" s="1">
-        <f>(B13-MIN($B13:$E13))/(MAX($B13:$E13)-MIN($B13:$E13))</f>
+        <f t="shared" si="3"/>
         <v>6.1086162410030315E-2</v>
       </c>
       <c r="I13" s="1">
-        <f>(C13-MIN($B13:$E13))/(MAX($B13:$E13)-MIN($B13:$E13))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <f>(D13-MIN($B13:$E13))/(MAX($B13:$E13)-MIN($B13:$E13))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45180453210839722</v>
       </c>
     </row>
@@ -3206,15 +3113,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:K19" si="4">(C19-MIN($B19:$E19))/(MAX($B19:$E19)-MIN($B19:$E19))</f>
+        <f t="shared" ref="I19:K19" si="5">(C19-MIN($B19:$E19))/(MAX($B19:$E19)-MIN($B19:$E19))</f>
         <v>1.7714287967954906E-2</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1286543658229886E-2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3235,19 +3142,19 @@
         <v>5.9627439999999997E-2</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H21" si="5">(B20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
+        <f t="shared" ref="H20:H21" si="6">(B20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:I21" si="6">(C20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
+        <f t="shared" ref="I20:I21" si="7">(C20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
         <v>6.7518923313769963E-2</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="7">(D20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
+        <f t="shared" ref="J20:J21" si="8">(D20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
         <v>5.6242528791213303E-2</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K21" si="8">(E20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
+        <f t="shared" ref="K20:K21" si="9">(E20-MIN($B20:$E20))/(MAX($B20:$E20)-MIN($B20:$E20))</f>
         <v>1</v>
       </c>
     </row>
@@ -3268,19 +3175,19 @@
         <v>0.66166586000000005</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3472675136651087E-2</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11135361414573458</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3325,7 +3232,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3334,7 +3241,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>8</v>
@@ -3354,31 +3261,31 @@
         <v>0</v>
       </c>
       <c r="B27" s="20">
-        <v>1.791621E-3</v>
+        <v>0.12298657</v>
       </c>
       <c r="C27" s="20">
-        <v>3.2008929999999998E-3</v>
+        <v>6.2605629999999995E-2</v>
       </c>
       <c r="D27" s="20">
-        <v>6.8562909999999996E-3</v>
+        <v>0.15809003999999999</v>
       </c>
       <c r="E27" s="20">
-        <v>1.7700009999999999E-2</v>
+        <v>1.086028</v>
       </c>
       <c r="H27" s="1">
         <f>(B27-MIN($B27:$E27))/(MAX($B27:$E27)-MIN($B27:$E27))</f>
-        <v>0</v>
+        <v>5.8999042594701158E-2</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:K27" si="9">(C27-MIN($B27:$E27))/(MAX($B27:$E27)-MIN($B27:$E27))</f>
-        <v>8.8586719874652289E-2</v>
+        <f t="shared" ref="I27:K27" si="10">(C27-MIN($B27:$E27))/(MAX($B27:$E27)-MIN($B27:$E27))</f>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="9"/>
-        <v>0.31836473196626008</v>
+        <f t="shared" si="10"/>
+        <v>9.3299123410796644E-2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -3387,31 +3294,31 @@
         <v>1</v>
       </c>
       <c r="B28" s="20">
-        <v>6.5852249000000002E-2</v>
+        <v>2.9499689999999999E-2</v>
       </c>
       <c r="C28" s="20">
-        <v>8.3061072E-2</v>
+        <v>1.603868E-2</v>
       </c>
       <c r="D28" s="20">
-        <v>0.14141957399999999</v>
+        <v>2.735545E-2</v>
       </c>
       <c r="E28" s="20">
-        <v>0.23631340000000001</v>
+        <v>8.7929460000000001E-2</v>
       </c>
       <c r="H28" s="1">
-        <f>(B28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
-        <v>0</v>
+        <f t="shared" ref="H28:H29" si="11">(B28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
+        <v>0.18724250870556697</v>
       </c>
       <c r="I28" s="1">
-        <f>(C28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
-        <v>0.1009545160234193</v>
+        <f t="shared" ref="I28:I29" si="12">(C28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28:J29" si="10">(D28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
-        <v>0.44331112723743127</v>
+        <f t="shared" ref="J28:J29" si="13">(D28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
+        <v>0.15741615266936873</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28:K29" si="11">(E28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
+        <f t="shared" ref="K28:K29" si="14">(E28-MIN($B28:$E28))/(MAX($B28:$E28)-MIN($B28:$E28))</f>
         <v>1</v>
       </c>
     </row>
@@ -3420,31 +3327,31 @@
         <v>12</v>
       </c>
       <c r="B29" s="20">
-        <v>0.70465490200000003</v>
+        <v>0.92615506999999997</v>
       </c>
       <c r="C29" s="20">
-        <v>0.94186556099999996</v>
+        <v>0.66078713</v>
       </c>
       <c r="D29" s="20">
-        <v>1.3784721289999999</v>
+        <v>1.05004309</v>
       </c>
       <c r="E29" s="20">
-        <v>1.8083999100000001</v>
+        <v>2.5123767099999998</v>
       </c>
       <c r="H29" s="1">
-        <f>(B29-MIN($B29:$E29))/(MAX($B29:$E29)-MIN($B29:$E29))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.14331898540928276</v>
       </c>
       <c r="I29" s="1">
-        <f>(C29-MIN($B29:$E29))/(MAX($B29:$E29)-MIN($B29:$E29))</f>
-        <v>0.21491436634429598</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="10"/>
-        <v>0.61048269493056662</v>
+        <f t="shared" si="13"/>
+        <v>0.21022799231782241</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -3464,248 +3371,514 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>1</v>
-      </c>
-      <c r="B31" s="20">
-        <v>7.39</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0.11</v>
-      </c>
-      <c r="D31" s="20">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="22">
+        <f>AVERAGE(H3:H31)</f>
+        <v>0.10837318580850049</v>
+      </c>
+      <c r="I33" s="22">
+        <f>AVERAGE(I3:I31)</f>
+        <v>0.25989215720153136</v>
+      </c>
+      <c r="J33" s="22">
+        <f>AVERAGE(J3:J31)</f>
+        <v>0.30748549624943045</v>
+      </c>
+      <c r="K33" s="22">
+        <f>AVERAGE(K3:K31)</f>
+        <v>0.71858588163152881</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="22">
+        <f>_xlfn.STDEV.P(H1:H30)</f>
+        <v>0.11780832218672878</v>
+      </c>
+      <c r="I34" s="22">
+        <f>_xlfn.STDEV.P(I1:I30)</f>
+        <v>0.42773295996510097</v>
+      </c>
+      <c r="J34" s="22">
+        <f>_xlfn.STDEV.P(J1:J30)</f>
+        <v>0.40439577410018446</v>
+      </c>
+      <c r="K34" s="22">
+        <f>_xlfn.STDEV.P(K1:K30)</f>
+        <v>0.2933029210555721</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="23">
+        <f>(H34/H33)*100</f>
+        <v>108.70615393267163</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" ref="I35:K35" si="15">(I34/I33)*100</f>
+        <v>164.58094179172122</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="15"/>
+        <v>131.51702406546713</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="15"/>
+        <v>40.816682953697359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B44AD1-764D-46D3-92D8-1E7028312D9C}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="30"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20">
+        <v>14.42</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="D3" s="20">
         <v>0.01</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E3" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="36">
+        <v>14.42</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="36">
+        <v>53.49</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="36">
+        <v>14.8</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="J5" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20">
+        <v>53.49</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H3:H6)</f>
+        <v>27.077500000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <f>AVERAGE(I3:I6)</f>
+        <v>0.10749999999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(J3:J6)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE(K3:K6)</f>
+        <v>7.2500000000000009E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="34">
+        <f>_xlfn.STDEV.P(H3:H6)</f>
+        <v>15.896166794230616</v>
+      </c>
+      <c r="I8" s="34">
+        <f>_xlfn.STDEV.P(I3:I6)</f>
+        <v>1.785357107135721E-2</v>
+      </c>
+      <c r="J8" s="34">
+        <f>_xlfn.STDEV.P(J3:J6)</f>
+        <v>1.0897247358851682E-2</v>
+      </c>
+      <c r="K8" s="34">
+        <f>_xlfn.STDEV.P(K3:K6)</f>
+        <v>3.960744879438715E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="G9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="46">
+        <f>H8/H7</f>
+        <v>0.58706183341263474</v>
+      </c>
+      <c r="I9" s="46">
+        <f t="shared" ref="I9:K9" si="0">I8/I7</f>
+        <v>0.16607973089634617</v>
+      </c>
+      <c r="J9" s="46">
+        <f t="shared" si="0"/>
+        <v>0.39626354032187933</v>
+      </c>
+      <c r="K9" s="46">
+        <f t="shared" si="0"/>
+        <v>0.54630963854327097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20">
+        <v>14.8</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="20">
-        <v>0.12298657</v>
-      </c>
-      <c r="C35" s="20">
-        <v>6.2605629999999995E-2</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0.15809003999999999</v>
-      </c>
-      <c r="E35" s="20">
-        <v>1.086028</v>
-      </c>
-      <c r="H35" s="1">
-        <f>(B35-MIN($B35:$E35))/(MAX($B35:$E35)-MIN($B35:$E35))</f>
-        <v>5.8999042594701158E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ref="I35:K35" si="12">(C35-MIN($B35:$E35))/(MAX($B35:$E35)-MIN($B35:$E35))</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="12"/>
-        <v>9.3299123410796644E-2</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="20">
-        <v>2.9499689999999999E-2</v>
-      </c>
-      <c r="C36" s="20">
-        <v>1.603868E-2</v>
-      </c>
-      <c r="D36" s="20">
-        <v>2.735545E-2</v>
-      </c>
-      <c r="E36" s="20">
-        <v>8.7929460000000001E-2</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ref="H36:H37" si="13">(B36-MIN($B36:$E36))/(MAX($B36:$E36)-MIN($B36:$E36))</f>
-        <v>0.18724250870556697</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ref="I36:I37" si="14">(C36-MIN($B36:$E36))/(MAX($B36:$E36)-MIN($B36:$E36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" ref="J36:J37" si="15">(D36-MIN($B36:$E36))/(MAX($B36:$E36)-MIN($B36:$E36))</f>
-        <v>0.15741615266936873</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" ref="K36:K37" si="16">(E36-MIN($B36:$E36))/(MAX($B36:$E36)-MIN($B36:$E36))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="20">
-        <v>0.92615506999999997</v>
-      </c>
-      <c r="C37" s="20">
-        <v>0.66078713</v>
-      </c>
-      <c r="D37" s="20">
-        <v>1.05004309</v>
-      </c>
-      <c r="E37" s="20">
-        <v>2.5123767099999998</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="13"/>
-        <v>0.14331898540928276</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="15"/>
-        <v>0.21022799231782241</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="3">
+        <v>93</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
         <v>25.6</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C15" s="1">
         <v>0.09</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D15" s="1">
         <v>0.03</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E15" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G41" s="21" t="s">
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="3">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="4">
         <v>24</v>
       </c>
-      <c r="H41" s="22">
-        <f>AVERAGE(H3:H39)</f>
-        <v>8.6698548646800391E-2</v>
-      </c>
-      <c r="I41" s="22">
-        <f t="shared" ref="I41:K41" si="17">AVERAGE(I3:I39)</f>
-        <v>0.23487743257738292</v>
-      </c>
-      <c r="J41" s="22">
-        <f t="shared" si="17"/>
-        <v>0.33746563394182816</v>
-      </c>
-      <c r="K41" s="22">
-        <f t="shared" si="17"/>
-        <v>0.77486870530522312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="22">
-        <f>_xlfn.STDEV.P(H1:H38)</f>
-        <v>0.11393945850989058</v>
-      </c>
-      <c r="I42" s="22">
-        <f t="shared" ref="I42:K42" si="18">_xlfn.STDEV.P(I1:I38)</f>
-        <v>0.38667035935683536</v>
-      </c>
-      <c r="J42" s="22">
-        <f t="shared" si="18"/>
-        <v>0.37052426260564991</v>
-      </c>
-      <c r="K42" s="22">
-        <f>_xlfn.STDEV.P(K1:K38)</f>
-        <v>0.28546857578816187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G43" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="23">
-        <f>(H42/H41)*100</f>
-        <v>131.42026053292591</v>
-      </c>
-      <c r="I43" s="23">
-        <f t="shared" ref="I43:K43" si="19">(I42/I41)*100</f>
-        <v>164.62644159286893</v>
-      </c>
-      <c r="J43" s="23">
-        <f t="shared" si="19"/>
-        <v>109.7961467298683</v>
-      </c>
-      <c r="K43" s="23">
-        <f t="shared" si="19"/>
-        <v>36.840896249089703</v>
-      </c>
+      <c r="J16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuzzy-ts-opt/Results/Results.xlsx
+++ b/fuzzy-ts-opt/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74667EE8-B0FE-494A-8E7D-13593333D247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0AFDC-992D-4B58-B358-1304CFCC70C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="53">
   <si>
     <t>MSE</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>FTS-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +419,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,42 +787,42 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="38">
         <v>1607004240.46509</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>1313761706.7729499</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="38">
         <v>851104586.22664106</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="38">
         <v>8961795088.7533207</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="38">
         <v>2591248416.1967802</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="41">
         <f>(D3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
         <v>9.3197940915507455E-2</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="41">
         <f t="shared" ref="M3:P3" si="0">(E3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
         <v>5.7042876978498906E-2</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="41">
         <f t="shared" si="0"/>
         <v>0.21454940604971195</v>
       </c>
@@ -831,19 +834,19 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="39">
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="39">
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="39">
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="39">
         <v>1.174243E-2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>6.0833459999999999E-3</v>
       </c>
       <c r="J4" s="34" t="s">
@@ -852,23 +855,23 @@
       <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="37">
         <f>D4</f>
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="37">
         <f t="shared" ref="M4:P4" si="1">E4</f>
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="37">
         <f t="shared" si="1"/>
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="37">
         <f t="shared" si="1"/>
         <v>1.174243E-2</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="37">
         <f t="shared" si="1"/>
         <v>6.0833459999999999E-3</v>
       </c>
@@ -878,42 +881,42 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>0.40503570500000002</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <v>0.36622087599999997</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>0.29476523700000001</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
         <v>0.95649412</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <v>0.46002805299999999</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="42">
         <f>D5</f>
         <v>0.40503570500000002</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <f t="shared" ref="M5" si="2">E5</f>
         <v>0.36622087599999997</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="42">
         <f t="shared" ref="N5" si="3">F5</f>
         <v>0.29476523700000001</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="42">
         <f t="shared" ref="O5" si="4">G5</f>
         <v>0.95649412</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="42">
         <f t="shared" ref="P5" si="5">H5</f>
         <v>0.46002805299999999</v>
       </c>
@@ -923,42 +926,42 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>1.0625795</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>1.2900293</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>3.2845518</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="38">
         <v>1.1234119</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="38">
         <v>2.2413943000000001</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="41">
         <f>(D6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="41">
         <f t="shared" ref="M6" si="6">(E6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0.10236392235852806</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="41">
         <f t="shared" ref="N6" si="7">(F6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>1</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="41">
         <f t="shared" ref="O6" si="8">(G6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>2.7377659028422634E-2</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="41">
         <f t="shared" ref="P6" si="9">(H6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0.53052632564321345</v>
       </c>
@@ -970,19 +973,19 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="39">
         <v>1.0738257</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="39">
         <v>1.234173</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <v>1.4101241</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <v>1.0399676</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>1.3632105999999999</v>
       </c>
       <c r="J7" s="34" t="s">
@@ -991,23 +994,23 @@
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="37">
         <f>D7</f>
         <v>1.0738257</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="37">
         <f t="shared" ref="M7:M8" si="10">E7</f>
         <v>1.234173</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="37">
         <f t="shared" ref="N7:N8" si="11">F7</f>
         <v>1.4101241</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="37">
         <f t="shared" ref="O7:O8" si="12">G7</f>
         <v>1.0399676</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="37">
         <f t="shared" ref="P7:P8" si="13">H7</f>
         <v>1.3632105999999999</v>
       </c>
@@ -1017,42 +1020,42 @@
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="40">
         <v>0.44802510000000001</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="40">
         <v>0.4936526</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="40">
         <v>0.78769789999999995</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="40">
         <v>0.46067130000000001</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="40">
         <v>0.57564280000000001</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="42">
         <f>D8</f>
         <v>0.44802510000000001</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="42">
         <f t="shared" si="10"/>
         <v>0.4936526</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="42">
         <f t="shared" si="11"/>
         <v>0.78769789999999995</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="42">
         <f t="shared" si="12"/>
         <v>0.46067130000000001</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="42">
         <f t="shared" si="13"/>
         <v>0.57564280000000001</v>
       </c>
@@ -1062,42 +1065,42 @@
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>342.06493172</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="38">
         <v>427.86097452000001</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>400.17674979999998</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="38">
         <v>465.57952799999998</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="38">
         <v>1984.1336221900001</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="41">
         <f>(D9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="41">
         <f t="shared" ref="M9" si="14">(E9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>5.2248753841986406E-2</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="41">
         <f t="shared" ref="N9" si="15">(F9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>3.5389395350670108E-2</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="41">
         <f t="shared" ref="O9" si="16">(G9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>7.5218897356021747E-2</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="41">
         <f t="shared" ref="P9" si="17">(H9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>1</v>
       </c>
@@ -1109,19 +1112,19 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="39">
         <v>2.284688E-2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="39">
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="39">
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>6.1611989999999998E-2</v>
       </c>
       <c r="J10" s="34" t="s">
@@ -1130,23 +1133,23 @@
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="37">
         <f>D10</f>
         <v>2.284688E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="37">
         <f t="shared" ref="M10:M11" si="18">E10</f>
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="37">
         <f t="shared" ref="N10:N11" si="19">F10</f>
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="37">
         <f t="shared" ref="O10:O11" si="20">G10</f>
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="37">
         <f t="shared" ref="P10:P11" si="21">H10</f>
         <v>6.1611989999999998E-2</v>
       </c>
@@ -1156,42 +1159,42 @@
       <c r="C11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="40">
         <v>0.30961970999999999</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="40">
         <v>0.34627860999999999</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="40">
         <v>0.33488849999999998</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="40">
         <v>0.36121959999999997</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="40">
         <v>0.68072102000000001</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="42">
         <f>D11</f>
         <v>0.30961970999999999</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="42">
         <f t="shared" si="18"/>
         <v>0.34627860999999999</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="42">
         <f t="shared" si="19"/>
         <v>0.33488849999999998</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="42">
         <f t="shared" si="20"/>
         <v>0.36121959999999997</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="42">
         <f t="shared" si="21"/>
         <v>0.68072102000000001</v>
       </c>
@@ -1201,42 +1204,42 @@
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>7.6661400000000005E-2</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>7.7646259999999995E-2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>6.2605629999999995E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="38">
         <v>0.15809003999999999</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="38">
         <v>1.0300634500000001</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="41">
         <f>(D12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.4528561048790745E-2</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="41">
         <f t="shared" ref="M12" si="22">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.5546548582345427E-2</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="41">
         <f t="shared" ref="N12" si="23">(F12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="41">
         <f t="shared" ref="O12" si="24">(G12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>9.869619948908985E-2</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="41">
         <f t="shared" ref="P12" si="25">(H12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1</v>
       </c>
@@ -1248,19 +1251,19 @@
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="39">
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="39">
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="39">
         <v>1.603868E-2</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="39">
         <v>2.735545E-2</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="39">
         <v>8.5561040000000005E-2</v>
       </c>
       <c r="J13" s="34" t="s">
@@ -1269,23 +1272,23 @@
       <c r="K13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="37">
         <f>D13</f>
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="37">
         <f t="shared" ref="M13:M14" si="26">E13</f>
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="37">
         <f t="shared" ref="N13:N14" si="27">F13</f>
         <v>1.603868E-2</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="37">
         <f t="shared" ref="O13:O14" si="28">G13</f>
         <v>2.735545E-2</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="37">
         <f t="shared" ref="P13:P14" si="29">H13</f>
         <v>8.5561040000000005E-2</v>
       </c>
@@ -1295,42 +1298,42 @@
       <c r="C14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="40">
         <v>0.73121190000000003</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="40">
         <v>0.73589378999999999</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="40">
         <v>0.66078713</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="40">
         <v>1.05004309</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="40">
         <v>2.4467874100000002</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="42">
         <f>D14</f>
         <v>0.73121190000000003</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="42">
         <f t="shared" si="26"/>
         <v>0.73589378999999999</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="42">
         <f t="shared" si="27"/>
         <v>0.66078713</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="42">
         <f t="shared" si="28"/>
         <v>1.05004309</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="42">
         <f t="shared" si="29"/>
         <v>2.4467874100000002</v>
       </c>
@@ -1439,19 +1442,19 @@
       <c r="B20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="43">
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="43">
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="43">
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="43">
         <v>1.174243E-2</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="43">
         <v>6.0833459999999999E-3</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1475,19 +1478,19 @@
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="43">
         <v>1.0738257</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="43">
         <v>1.234173</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <v>1.4101241</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="43">
         <v>1.0399676</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="43">
         <v>1.3632105999999999</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -1511,20 +1514,23 @@
       <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="43">
         <v>2.284688E-2</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="43">
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="43">
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="43">
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="43">
         <v>6.1611989999999998E-2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>6</v>
@@ -1547,19 +1553,19 @@
       <c r="B23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="44">
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="44">
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="44">
         <v>1.603868E-2</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="44">
         <v>2.735545E-2</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="44">
         <v>8.5561040000000005E-2</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -1627,19 +1633,19 @@
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="45">
         <v>28.67</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="45">
         <v>68</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="45">
         <v>0.13</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="45">
         <v>0.01</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="45">
         <v>0.04</v>
       </c>
       <c r="J27" s="3"/>
@@ -1649,19 +1655,19 @@
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="45">
         <v>150.88999999999999</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <v>305.43</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="45">
         <v>0.16</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="45">
         <v>0.02</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="45">
         <v>0.15</v>
       </c>
       <c r="J28" s="3"/>
@@ -1671,19 +1677,19 @@
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="45">
         <v>43.53</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="45">
         <v>77.92</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="45">
         <v>0.11</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="45">
         <v>0.03</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="45">
         <v>0.03</v>
       </c>
       <c r="J29" s="3"/>
@@ -3895,44 +3901,44 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="38">
         <v>1607004240.46509</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>1313761706.7729499</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="38">
         <v>851104586.22664106</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="38">
         <v>8961795088.7533207</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="38">
         <v>2591248416.1967802</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="46" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="41">
         <f>(D3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
         <v>9.3197940915507455E-2</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="41">
         <f t="shared" ref="M3:P3" si="0">(E3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
         <v>5.7042876978498906E-2</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="41">
         <f t="shared" si="0"/>
         <v>0.21454940604971195</v>
       </c>
@@ -3944,42 +3950,42 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="39">
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="39">
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="39">
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="39">
         <v>1.174243E-2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>6.0833459999999999E-3</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="37">
         <f>D4</f>
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="37">
         <f t="shared" ref="M4:P5" si="1">E4</f>
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="37">
         <f t="shared" si="1"/>
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="37">
         <f t="shared" si="1"/>
         <v>1.174243E-2</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="37">
         <f t="shared" si="1"/>
         <v>6.0833459999999999E-3</v>
       </c>
@@ -3989,42 +3995,42 @@
       <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>0.40503570500000002</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <v>0.36622087599999997</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>0.29476523700000001</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
         <v>0.95649412</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <v>0.46002805299999999</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="42">
         <f>D5</f>
         <v>0.40503570500000002</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <f t="shared" si="1"/>
         <v>0.36622087599999997</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="42">
         <f t="shared" si="1"/>
         <v>0.29476523700000001</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="42">
         <f t="shared" si="1"/>
         <v>0.95649412</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="42">
         <f t="shared" si="1"/>
         <v>0.46002805299999999</v>
       </c>
@@ -4034,44 +4040,44 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>1.0625795</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>1.2900293</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>3.2845518</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="38">
         <v>1.1234119</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="38">
         <v>2.2413943000000001</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="47" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="41">
         <f>(D6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="41">
         <f t="shared" ref="M6:P6" si="2">(E6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0.10236392235852806</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="41">
         <f t="shared" si="2"/>
         <v>2.7377659028422634E-2</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="41">
         <f t="shared" si="2"/>
         <v>0.53052632564321345</v>
       </c>
@@ -4083,42 +4089,42 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="39">
         <v>1.0738257</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="39">
         <v>1.234173</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <v>1.4101241</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <v>1.0399676</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>1.3632105999999999</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="37">
         <f>D7</f>
         <v>1.0738257</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="37">
         <f t="shared" ref="M7:P8" si="3">E7</f>
         <v>1.234173</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="37">
         <f t="shared" si="3"/>
         <v>1.4101241</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="37">
         <f t="shared" si="3"/>
         <v>1.0399676</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="37">
         <f t="shared" si="3"/>
         <v>1.3632105999999999</v>
       </c>
@@ -4128,42 +4134,42 @@
       <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="40">
         <v>0.44802510000000001</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="40">
         <v>0.4936526</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="40">
         <v>0.78769789999999995</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="40">
         <v>0.46067130000000001</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="40">
         <v>0.57564280000000001</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="42">
         <f>D8</f>
         <v>0.44802510000000001</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="42">
         <f t="shared" si="3"/>
         <v>0.4936526</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="42">
         <f t="shared" si="3"/>
         <v>0.78769789999999995</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="42">
         <f t="shared" si="3"/>
         <v>0.46067130000000001</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="42">
         <f t="shared" si="3"/>
         <v>0.57564280000000001</v>
       </c>
@@ -4188,29 +4194,29 @@
       <c r="H9">
         <v>1984.1336221900001</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="46" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="41">
         <f>(D9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="41">
         <f t="shared" ref="M9:P9" si="4">(E9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>5.2248753841986406E-2</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="41">
         <f t="shared" si="4"/>
         <v>3.5389395350670108E-2</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="41">
         <f t="shared" si="4"/>
         <v>7.5218897356021747E-2</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="41">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4237,27 +4243,27 @@
       <c r="H10">
         <v>6.1611989999999998E-2</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="37">
         <f>D10</f>
         <v>2.284688E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="37">
         <f t="shared" ref="M10:P11" si="5">E10</f>
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="37">
         <f t="shared" si="5"/>
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="37">
         <f t="shared" si="5"/>
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="37">
         <f t="shared" si="5"/>
         <v>6.1611989999999998E-2</v>
       </c>
@@ -4282,27 +4288,27 @@
       <c r="H11">
         <v>0.68072102000000001</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="42">
         <f>D11</f>
         <v>0.30961970999999999</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="42">
         <f t="shared" si="5"/>
         <v>0.34627860999999999</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="42">
         <f t="shared" si="5"/>
         <v>0.33488849999999998</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="42">
         <f t="shared" si="5"/>
         <v>0.36121959999999997</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="42">
         <f t="shared" si="5"/>
         <v>0.68072102000000001</v>
       </c>
@@ -4327,29 +4333,29 @@
       <c r="H12">
         <v>1.0300634500000001</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="46" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="41">
         <f>(D12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.4528561048790745E-2</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="41">
         <f t="shared" ref="M12:P12" si="6">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.5546548582345427E-2</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="41">
         <f t="shared" si="6"/>
         <v>9.869619948908985E-2</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -4376,27 +4382,27 @@
       <c r="H13">
         <v>8.5561040000000005E-2</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="37">
         <f>D13</f>
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="37">
         <f t="shared" ref="M13:P14" si="7">E13</f>
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="37">
         <f t="shared" si="7"/>
         <v>1.603868E-2</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="37">
         <f t="shared" si="7"/>
         <v>2.735545E-2</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="37">
         <f t="shared" si="7"/>
         <v>8.5561040000000005E-2</v>
       </c>
@@ -4421,27 +4427,27 @@
       <c r="H14">
         <v>2.4467874100000002</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="42">
         <f>D14</f>
         <v>0.73121190000000003</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="42">
         <f t="shared" si="7"/>
         <v>0.73589378999999999</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="42">
         <f t="shared" si="7"/>
         <v>0.66078713</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="42">
         <f t="shared" si="7"/>
         <v>1.05004309</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="42">
         <f t="shared" si="7"/>
         <v>2.4467874100000002</v>
       </c>
@@ -4554,7 +4560,7 @@
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19">
-        <f t="shared" ref="L21:R32" si="9">(N3*(0.8-0.2))+0.2</f>
+        <f t="shared" ref="L21:P32" si="9">(N3*(0.8-0.2))+0.2</f>
         <v>0.2</v>
       </c>
       <c r="O21" s="19">

--- a/fuzzy-ts-opt/Results/Results.xlsx
+++ b/fuzzy-ts-opt/Results/Results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0AFDC-992D-4B58-B358-1304CFCC70C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1857459-CA00-4B0B-AFCF-98B42BE65783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelas finalizads" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparação" sheetId="2" r:id="rId2"/>
-    <sheet name="Normalização" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Tempo" sheetId="4" r:id="rId4"/>
-    <sheet name="Trash" sheetId="6" r:id="rId5"/>
+    <sheet name="Tabelas finalizadas_01" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelas finalizadas_02" sheetId="7" r:id="rId2"/>
+    <sheet name="Comparação" sheetId="2" r:id="rId3"/>
+    <sheet name="Normalização" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Tempo" sheetId="4" r:id="rId5"/>
+    <sheet name="Trash" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="67">
   <si>
     <t>MSE</t>
   </si>
@@ -197,6 +198,48 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Número de gerações</t>
+  </si>
+  <si>
+    <t>População</t>
+  </si>
+  <si>
+    <t>Crossover probability</t>
+  </si>
+  <si>
+    <t>Mutation probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parâmetros </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Elitismo</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Temperatura inicial</t>
+  </si>
+  <si>
+    <t>Máximo de Iterações</t>
+  </si>
+  <si>
+    <t>Tempo máximo (s)</t>
+  </si>
+  <si>
+    <t>Máximo de Iterações sem melhoria</t>
+  </si>
+  <si>
+    <t>CORRETO</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +292,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,12 +336,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +512,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,17 +840,1195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q33"/>
+  <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1607004240.46509</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1313761706.7729499</v>
+      </c>
+      <c r="F3" s="2">
+        <v>851104586.22664106</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8961795088.7533207</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2591248416.1967802</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="41">
+        <f>(D3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
+        <v>9.3197940915507455E-2</v>
+      </c>
+      <c r="M3" s="41">
+        <f t="shared" ref="M3:P3" si="0">(E3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
+        <v>5.7042876978498906E-2</v>
+      </c>
+      <c r="N3" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="41">
+        <f t="shared" si="0"/>
+        <v>0.21454940604971195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.174243E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.0833459999999999E-3</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37">
+        <f>D4</f>
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" ref="M4:P4" si="1">E4</f>
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="N4" s="37">
+        <f t="shared" si="1"/>
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="O4" s="37">
+        <f t="shared" si="1"/>
+        <v>1.174243E-2</v>
+      </c>
+      <c r="P4" s="37">
+        <f t="shared" si="1"/>
+        <v>6.0833459999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.40503570500000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.36622087599999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.29476523700000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.95649412</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.46002805299999999</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="42">
+        <f>D5</f>
+        <v>0.40503570500000002</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" ref="M5" si="2">E5</f>
+        <v>0.36622087599999997</v>
+      </c>
+      <c r="N5" s="42">
+        <f t="shared" ref="N5" si="3">F5</f>
+        <v>0.29476523700000001</v>
+      </c>
+      <c r="O5" s="42">
+        <f t="shared" ref="O5" si="4">G5</f>
+        <v>0.95649412</v>
+      </c>
+      <c r="P5" s="42">
+        <f t="shared" ref="P5" si="5">H5</f>
+        <v>0.46002805299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0621752</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.2900293</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.2845518</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1234119</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.4057341999999999</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="41">
+        <f>(D6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="41">
+        <f t="shared" ref="M6" si="6">(E6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <v>0.10252722243385755</v>
+      </c>
+      <c r="N6" s="41">
+        <f t="shared" ref="N6" si="7">(F6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" ref="O6" si="8">(G6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <v>2.7554600781883695E-2</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" ref="P6" si="9">(H6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <v>0.15459081057638924</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.234173</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.4101241</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0399676</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.1410818</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="37">
+        <f>D7</f>
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="M7" s="37">
+        <f t="shared" ref="M7:M8" si="10">E7</f>
+        <v>1.234173</v>
+      </c>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7:N8" si="11">F7</f>
+        <v>1.4101241</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" ref="O7:O8" si="12">G7</f>
+        <v>1.0399676</v>
+      </c>
+      <c r="P7" s="37">
+        <f t="shared" ref="P7:P8" si="13">H7</f>
+        <v>1.1410818</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.4479399</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4936526</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.78769789999999995</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.46067130000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.45587480000000002</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="42">
+        <f>D8</f>
+        <v>0.4479399</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="10"/>
+        <v>0.4936526</v>
+      </c>
+      <c r="N8" s="42">
+        <f t="shared" si="11"/>
+        <v>0.78769789999999995</v>
+      </c>
+      <c r="O8" s="42">
+        <f t="shared" si="12"/>
+        <v>0.46067130000000001</v>
+      </c>
+      <c r="P8" s="42">
+        <f t="shared" si="13"/>
+        <v>0.45587480000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>343.47451228</v>
+      </c>
+      <c r="E9" s="2">
+        <v>427.86097452000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>400.17674979999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>465.57952799999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1842.5107162500001</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="41">
+        <f>(D9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="41">
+        <f t="shared" ref="M9" si="14">(E9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <v>5.6293811995009581E-2</v>
+      </c>
+      <c r="N9" s="41">
+        <f t="shared" ref="N9" si="15">(F9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <v>3.782579591462272E-2</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" ref="O9" si="16">(G9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <v>8.1455681588357184E-2</v>
+      </c>
+      <c r="P9" s="41">
+        <f t="shared" ref="P9" si="17">(H9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.9010180000000002E-2</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="37">
+        <f>D10</f>
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="M10" s="37">
+        <f t="shared" ref="M10:M11" si="18">E10</f>
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="N10" s="37">
+        <f t="shared" ref="N10:N11" si="19">F10</f>
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" ref="O10:O11" si="20">G10</f>
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="P10" s="37">
+        <f t="shared" ref="P10:P11" si="21">H10</f>
+        <v>5.9010180000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.31025700000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.34627860999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.33488849999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.36121959999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.65597715999999995</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="42">
+        <f>D11</f>
+        <v>0.31025700000000001</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="18"/>
+        <v>0.34627860999999999</v>
+      </c>
+      <c r="N11" s="42">
+        <f t="shared" si="19"/>
+        <v>0.33488849999999998</v>
+      </c>
+      <c r="O11" s="42">
+        <f t="shared" si="20"/>
+        <v>0.36121959999999997</v>
+      </c>
+      <c r="P11" s="42">
+        <f t="shared" si="21"/>
+        <v>0.65597715999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.6661400000000005E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.7646259999999995E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.2605629999999995E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.15809003999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.99136389000000003</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="41">
+        <f>(D12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <v>1.5133938082015021E-2</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" ref="M12" si="22">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <v>1.6194343186783606E-2</v>
+      </c>
+      <c r="N12" s="41">
+        <f t="shared" ref="N12" si="23">(F12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" ref="O12" si="24">(G12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <v>0.10280867919279661</v>
+      </c>
+      <c r="P12" s="41">
+        <f t="shared" ref="P12" si="25">(H12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.603868E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.735545E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8.388168E-2</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="37">
+        <f>D13</f>
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="M13" s="37">
+        <f t="shared" ref="M13:M14" si="26">E13</f>
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="N13" s="37">
+        <f t="shared" ref="N13:N14" si="27">F13</f>
+        <v>1.603868E-2</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" ref="O13:O14" si="28">G13</f>
+        <v>2.735545E-2</v>
+      </c>
+      <c r="P13" s="37">
+        <f t="shared" ref="P13:P14" si="29">H13</f>
+        <v>8.388168E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.73121190000000003</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.73589378999999999</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.66078713</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1.05004309</v>
+      </c>
+      <c r="H14" s="40">
+        <v>2.4003844000000001</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="42">
+        <f>D14</f>
+        <v>0.73121190000000003</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="26"/>
+        <v>0.73589378999999999</v>
+      </c>
+      <c r="N14" s="42">
+        <f t="shared" si="27"/>
+        <v>0.66078713</v>
+      </c>
+      <c r="O14" s="42">
+        <f t="shared" si="28"/>
+        <v>1.05004309</v>
+      </c>
+      <c r="P14" s="42">
+        <f t="shared" si="29"/>
+        <v>2.4003844000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="24">
+        <f>AVERAGE(L3:L14)</f>
+        <v>0.26062061016646026</v>
+      </c>
+      <c r="M15" s="24">
+        <f>AVERAGE(M3:M14)</f>
+        <v>0.28827431321617908</v>
+      </c>
+      <c r="N15" s="24">
+        <f>AVERAGE(N3:N14)</f>
+        <v>0.38099582174288521</v>
+      </c>
+      <c r="O15" s="24">
+        <f>AVERAGE(O3:O14)</f>
+        <v>0.42878088763025307</v>
+      </c>
+      <c r="P15" s="24">
+        <f>AVERAGE(P3:P14)</f>
+        <v>0.63595513630217515</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="24">
+        <f>_xlfn.STDEV.P(L3:L14)</f>
+        <v>0.33514836516831298</v>
+      </c>
+      <c r="M16" s="24">
+        <f>_xlfn.STDEV.P(M3:M14)</f>
+        <v>0.36326527487340693</v>
+      </c>
+      <c r="N16" s="24">
+        <f>_xlfn.STDEV.P(N3:N14)</f>
+        <v>0.45690079882961304</v>
+      </c>
+      <c r="O16" s="24">
+        <f>_xlfn.STDEV.P(O3:O14)</f>
+        <v>0.43349301137122703</v>
+      </c>
+      <c r="P16" s="24">
+        <f>_xlfn.STDEV.P(P3:P14)</f>
+        <v>0.65452810645543313</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="25">
+        <f>(L16/L15)*100</f>
+        <v>128.59626295642977</v>
+      </c>
+      <c r="M17" s="25">
+        <f>(M16/M15)*100</f>
+        <v>126.01375086825428</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" ref="N17:P17" si="30">(N16/N15)*100</f>
+        <v>119.92278464879132</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="30"/>
+        <v>101.09895843702748</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="30"/>
+        <v>102.92048433813309</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="43">
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="D20" s="43">
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="E20" s="43">
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="F20" s="43">
+        <v>1.174243E-2</v>
+      </c>
+      <c r="G20" s="43">
+        <v>6.0833459999999999E-3</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="43">
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1.234173</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1.4101241</v>
+      </c>
+      <c r="F21" s="43">
+        <v>1.0399676</v>
+      </c>
+      <c r="G21" s="43">
+        <v>1.1410818</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="3">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="43">
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="D22" s="43">
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="E22" s="43">
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="F22" s="43">
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="G22" s="43">
+        <v>5.9010180000000002E-2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="3">
+        <v>93</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="44">
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1.603868E-2</v>
+      </c>
+      <c r="F23" s="44">
+        <v>2.735545E-2</v>
+      </c>
+      <c r="G23" s="44">
+        <v>8.388168E-2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3">
+        <v>25</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="4">
+        <v>24</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>27.72</v>
+      </c>
+      <c r="D27" s="1">
+        <v>67.37</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15">
+        <v>150.91999999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>199.86</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C27:C30)</f>
+        <v>68.74499999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <f>AVERAGE(D27:D30)</f>
+        <v>100.33000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E27:E30)</f>
+        <v>0.1275</v>
+      </c>
+      <c r="F31" s="1">
+        <f>AVERAGE(F27:F30)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <f>AVERAGE(G27:G30)</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="24">
+        <f>_xlfn.STDEV.P(C27:C30)</f>
+        <v>52.733939972279707</v>
+      </c>
+      <c r="D32" s="24">
+        <f>_xlfn.STDEV.P(D27:D30)</f>
+        <v>57.482195069429963</v>
+      </c>
+      <c r="E32" s="24">
+        <f>_xlfn.STDEV.P(E27:E30)</f>
+        <v>3.7666297933298405E-2</v>
+      </c>
+      <c r="F32" s="24">
+        <f>_xlfn.STDEV.P(F27:F30)</f>
+        <v>1.0897247358851682E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <f>_xlfn.STDEV.P(G27:G30)</f>
+        <v>2.5860201081971519E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="36">
+        <f>C32/C31</f>
+        <v>0.76709491559065701</v>
+      </c>
+      <c r="D33" s="36">
+        <f t="shared" ref="D33:G33" si="31">D32/D31</f>
+        <v>0.57293127747862016</v>
+      </c>
+      <c r="E33" s="36">
+        <f t="shared" si="31"/>
+        <v>0.29542194457488946</v>
+      </c>
+      <c r="F33" s="36">
+        <f t="shared" si="31"/>
+        <v>0.39626354032187933</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="31"/>
+        <v>0.44974262751254812</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="56">
+        <v>100</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="56">
+        <v>30</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68250EE7-A8B7-45C1-BA64-781DD855C3FB}">
+  <dimension ref="A2:Q41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -783,23 +2090,23 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="59">
         <v>1607004240.46509</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="59">
         <v>1313761706.7729499</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="59">
         <v>851104586.22664106</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="59">
         <v>8961795088.7533207</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="59">
         <v>2591248416.1967802</v>
       </c>
       <c r="J3" s="3"/>
@@ -828,28 +2135,28 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="60">
         <v>4.8077179999999999E-3</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="60">
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="60">
         <v>3.3633180000000001E-3</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="60">
         <v>1.174243E-2</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="60">
         <v>6.0833459999999999E-3</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -860,7 +2167,7 @@
         <v>4.8077179999999999E-3</v>
       </c>
       <c r="M4" s="37">
-        <f t="shared" ref="M4:P4" si="1">E4</f>
+        <f t="shared" ref="M4:P5" si="1">E4</f>
         <v>4.1260580000000002E-3</v>
       </c>
       <c r="N4" s="37">
@@ -877,27 +2184,27 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="61">
         <v>0.40503570500000002</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="61">
         <v>0.36622087599999997</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="61">
         <v>0.29476523700000001</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="61">
         <v>0.95649412</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="61">
         <v>0.46002805299999999</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="42">
@@ -905,40 +2212,40 @@
         <v>0.40503570500000002</v>
       </c>
       <c r="M5" s="42">
-        <f t="shared" ref="M5" si="2">E5</f>
+        <f t="shared" si="1"/>
         <v>0.36622087599999997</v>
       </c>
       <c r="N5" s="42">
-        <f t="shared" ref="N5" si="3">F5</f>
+        <f t="shared" si="1"/>
         <v>0.29476523700000001</v>
       </c>
       <c r="O5" s="42">
-        <f t="shared" ref="O5" si="4">G5</f>
+        <f t="shared" si="1"/>
         <v>0.95649412</v>
       </c>
       <c r="P5" s="42">
-        <f t="shared" ref="P5" si="5">H5</f>
+        <f t="shared" si="1"/>
         <v>0.46002805299999999</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="59">
         <v>1.0625795</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="59">
         <v>1.2900293</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="59">
         <v>3.2845518</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="59">
         <v>1.1234119</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="59">
         <v>2.2413943000000001</v>
       </c>
       <c r="J6" s="3"/>
@@ -950,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="M6" s="41">
-        <f t="shared" ref="M6" si="6">(E6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <f t="shared" ref="M6:P6" si="2">(E6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0.10236392235852806</v>
       </c>
       <c r="N6" s="41">
-        <f t="shared" ref="N6" si="7">(F6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="41">
-        <f t="shared" ref="O6" si="8">(G6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <f t="shared" si="2"/>
         <v>2.7377659028422634E-2</v>
       </c>
       <c r="P6" s="41">
-        <f t="shared" ref="P6" si="9">(H6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
+        <f t="shared" si="2"/>
         <v>0.53052632564321345</v>
       </c>
     </row>
@@ -973,22 +2280,22 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="60">
         <v>1.0738257</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="60">
         <v>1.234173</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="60">
         <v>1.4101241</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="60">
         <v>1.0399676</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="60">
         <v>1.3632105999999999</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -999,44 +2306,44 @@
         <v>1.0738257</v>
       </c>
       <c r="M7" s="37">
-        <f t="shared" ref="M7:M8" si="10">E7</f>
+        <f t="shared" ref="M7:P8" si="3">E7</f>
         <v>1.234173</v>
       </c>
       <c r="N7" s="37">
-        <f t="shared" ref="N7:N8" si="11">F7</f>
+        <f t="shared" si="3"/>
         <v>1.4101241</v>
       </c>
       <c r="O7" s="37">
-        <f t="shared" ref="O7:O8" si="12">G7</f>
+        <f t="shared" si="3"/>
         <v>1.0399676</v>
       </c>
       <c r="P7" s="37">
-        <f t="shared" ref="P7:P8" si="13">H7</f>
+        <f t="shared" si="3"/>
         <v>1.3632105999999999</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="61">
         <v>0.44802510000000001</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="61">
         <v>0.4936526</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="61">
         <v>0.78769789999999995</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="61">
         <v>0.46067130000000001</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="61">
         <v>0.57564280000000001</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="34" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="47" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="42">
@@ -1044,40 +2351,40 @@
         <v>0.44802510000000001</v>
       </c>
       <c r="M8" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0.4936526</v>
       </c>
       <c r="N8" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.78769789999999995</v>
       </c>
       <c r="O8" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0.46067130000000001</v>
       </c>
       <c r="P8" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0.57564280000000001</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="59">
         <v>342.06493172</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="59">
         <v>427.86097452000001</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="59">
         <v>400.17674979999998</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="59">
         <v>465.57952799999998</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="59">
         <v>1984.1336221900001</v>
       </c>
       <c r="J9" s="3"/>
@@ -1089,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="M9" s="41">
-        <f t="shared" ref="M9" si="14">(E9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <f t="shared" ref="M9:P9" si="4">(E9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>5.2248753841986406E-2</v>
       </c>
       <c r="N9" s="41">
-        <f t="shared" ref="N9" si="15">(F9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <f t="shared" si="4"/>
         <v>3.5389395350670108E-2</v>
       </c>
       <c r="O9" s="41">
-        <f t="shared" ref="O9" si="16">(G9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <f t="shared" si="4"/>
         <v>7.5218897356021747E-2</v>
       </c>
       <c r="P9" s="41">
-        <f t="shared" ref="P9" si="17">(H9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1112,22 +2419,22 @@
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="60">
         <v>2.284688E-2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="60">
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="60">
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="60">
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="60">
         <v>6.1611989999999998E-2</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1138,44 +2445,44 @@
         <v>2.284688E-2</v>
       </c>
       <c r="M10" s="37">
-        <f t="shared" ref="M10:M11" si="18">E10</f>
+        <f t="shared" ref="M10:P11" si="5">E10</f>
         <v>2.5618129999999999E-2</v>
       </c>
       <c r="N10" s="37">
-        <f t="shared" ref="N10:N11" si="19">F10</f>
+        <f t="shared" si="5"/>
         <v>2.6459199999999999E-2</v>
       </c>
       <c r="O10" s="37">
-        <f t="shared" ref="O10:O11" si="20">G10</f>
+        <f t="shared" si="5"/>
         <v>2.6058100000000001E-2</v>
       </c>
       <c r="P10" s="37">
-        <f t="shared" ref="P10:P11" si="21">H10</f>
+        <f t="shared" si="5"/>
         <v>6.1611989999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="61">
         <v>0.30961970999999999</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="61">
         <v>0.34627860999999999</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="61">
         <v>0.33488849999999998</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="61">
         <v>0.36121959999999997</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="61">
         <v>0.68072102000000001</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="42">
@@ -1183,40 +2490,40 @@
         <v>0.30961970999999999</v>
       </c>
       <c r="M11" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>0.34627860999999999</v>
       </c>
       <c r="N11" s="42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>0.33488849999999998</v>
       </c>
       <c r="O11" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.36121959999999997</v>
       </c>
       <c r="P11" s="42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0.68072102000000001</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="59">
         <v>7.6661400000000005E-2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="59">
         <v>7.7646259999999995E-2</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="59">
         <v>6.2605629999999995E-2</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="59">
         <v>0.15809003999999999</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="59">
         <v>1.0300634500000001</v>
       </c>
       <c r="J12" s="3"/>
@@ -1228,19 +2535,19 @@
         <v>1.4528561048790745E-2</v>
       </c>
       <c r="M12" s="41">
-        <f t="shared" ref="M12" si="22">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <f t="shared" ref="M12:P12" si="6">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.5546548582345427E-2</v>
       </c>
       <c r="N12" s="41">
-        <f t="shared" ref="N12" si="23">(F12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O12" s="41">
-        <f t="shared" ref="O12" si="24">(G12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <f t="shared" si="6"/>
         <v>9.869619948908985E-2</v>
       </c>
       <c r="P12" s="41">
-        <f t="shared" ref="P12" si="25">(H12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1251,22 +2558,22 @@
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="60">
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="60">
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="60">
         <v>1.603868E-2</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="60">
         <v>2.735545E-2</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="60">
         <v>8.5561040000000005E-2</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="47" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1277,44 +2584,44 @@
         <v>2.1144949999999999E-2</v>
       </c>
       <c r="M13" s="37">
-        <f t="shared" ref="M13:M14" si="26">E13</f>
+        <f t="shared" ref="M13:P14" si="7">E13</f>
         <v>2.1270440000000002E-2</v>
       </c>
       <c r="N13" s="37">
-        <f t="shared" ref="N13:N14" si="27">F13</f>
+        <f t="shared" si="7"/>
         <v>1.603868E-2</v>
       </c>
       <c r="O13" s="37">
-        <f t="shared" ref="O13:O14" si="28">G13</f>
+        <f t="shared" si="7"/>
         <v>2.735545E-2</v>
       </c>
       <c r="P13" s="37">
-        <f t="shared" ref="P13:P14" si="29">H13</f>
+        <f t="shared" si="7"/>
         <v>8.5561040000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="61">
         <v>0.73121190000000003</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="61">
         <v>0.73589378999999999</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="61">
         <v>0.66078713</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="61">
         <v>1.05004309</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="61">
         <v>2.4467874100000002</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35" t="s">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="42">
@@ -1322,19 +2629,19 @@
         <v>0.73121190000000003</v>
       </c>
       <c r="M14" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>0.73589378999999999</v>
       </c>
       <c r="N14" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="7"/>
         <v>0.66078713</v>
       </c>
       <c r="O14" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>1.05004309</v>
       </c>
       <c r="P14" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="7"/>
         <v>2.4467874100000002</v>
       </c>
     </row>
@@ -1404,15 +2711,15 @@
         <v>126.28269644037613</v>
       </c>
       <c r="N17" s="25">
-        <f t="shared" ref="N17:P17" si="30">(N16/N15)*100</f>
+        <f t="shared" ref="N17:P17" si="8">(N16/N15)*100</f>
         <v>120.02689603316013</v>
       </c>
       <c r="O17" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>101.46785574071502</v>
       </c>
       <c r="P17" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="8"/>
         <v>94.442052349156398</v>
       </c>
     </row>
@@ -1439,7 +2746,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="43">
@@ -1550,7 +2857,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="44">
@@ -1774,33 +3081,123 @@
         <v>0.71078793082468406</v>
       </c>
       <c r="D33" s="36">
-        <f t="shared" ref="D33:G33" si="31">D32/D31</f>
+        <f t="shared" ref="D33:G33" si="9">D32/D31</f>
         <v>0.69873585126064819</v>
       </c>
       <c r="E33" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>0.21110368230180862</v>
       </c>
       <c r="F33" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>0.36851386559504451</v>
       </c>
       <c r="G33" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="9"/>
         <v>0.71338371423178604</v>
       </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="56">
+        <v>100</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="56">
+        <v>30</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582570C-A3E6-4117-8056-4B8BD9BB6A97}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,14 +3215,14 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1845,9 +3242,6 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -1888,24 +3282,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>(B3-MIN($B3:$F3))/(MAX($B3:$F3)-MIN($B3:$F3))</f>
-        <v>9.3197940915507455E-2</v>
+        <v>1607004240.46509</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:M3" si="0">(C3-MIN($B3:$F3))/(MAX($B3:$F3)-MIN($B3:$F3))</f>
-        <v>5.7042876978498906E-2</v>
+        <v>1313761706.7729499</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>851104586.22664106</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8961795088.7533207</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>0.21454940604971195</v>
+        <v>2591248416.1967802</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1931,24 +3320,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="1">(B4-MIN($B4:$F4))/(MAX($B4:$F4)-MIN($B4:$F4))</f>
-        <v>0.17238103512639524</v>
+        <v>4.8077179999999999E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J5" si="2">(C4-MIN($B4:$F4))/(MAX($B4:$F4)-MIN($B4:$F4))</f>
-        <v>9.1028739083568774E-2</v>
+        <v>4.1260580000000002E-3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K5" si="3">(D4-MIN($B4:$F4))/(MAX($B4:$F4)-MIN($B4:$F4))</f>
-        <v>0</v>
+        <v>3.3633180000000001E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L5" si="4">(E4-MIN($B4:$F4))/(MAX($B4:$F4)-MIN($B4:$F4))</f>
-        <v>1</v>
+        <v>1.174243E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M5" si="5">(F4-MIN($B4:$F4))/(MAX($B4:$F4)-MIN($B4:$F4))</f>
-        <v>0.3246200790728182</v>
+        <v>6.0833459999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1974,24 +3358,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0.16663995003524731</v>
+        <v>0.40503570500000002</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0.1079832554324215</v>
+        <v>0.36622087599999997</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29476523700000001</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.95649412</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
-        <v>0.24974399674194059</v>
+        <v>0.46002805299999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2003,14 +3382,14 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2031,9 +3410,6 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
       <c r="I8" t="s">
         <v>45</v>
       </c>
@@ -2073,24 +3449,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>(B9-MIN($B9:$F9))/(MAX($B9:$F9)-MIN($B9:$F9))</f>
-        <v>0</v>
+        <v>1.0621752</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9" si="6">(C9-MIN($B9:$F9))/(MAX($B9:$F9)-MIN($B9:$F9))</f>
-        <v>0.10236392235852806</v>
+        <v>1.2900293</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9" si="7">(D9-MIN($B9:$F9))/(MAX($B9:$F9)-MIN($B9:$F9))</f>
-        <v>1</v>
+        <v>3.2845518</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9" si="8">(E9-MIN($B9:$F9))/(MAX($B9:$F9)-MIN($B9:$F9))</f>
-        <v>2.7377659028422634E-2</v>
+        <v>1.1234119</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9" si="9">(F9-MIN($B9:$F9))/(MAX($B9:$F9)-MIN($B9:$F9))</f>
-        <v>0.53052632564321345</v>
+        <v>1.4057341999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2116,24 +3487,19 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I11" si="10">(B10-MIN($B10:$F10))/(MAX($B10:$F10)-MIN($B10:$F10))</f>
-        <v>9.1469689172012383E-2</v>
+        <v>1.0758380000000001</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J11" si="11">(C10-MIN($B10:$F10))/(MAX($B10:$F10)-MIN($B10:$F10))</f>
-        <v>0.52465754349849314</v>
+        <v>1.234173</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K11" si="12">(D10-MIN($B10:$F10))/(MAX($B10:$F10)-MIN($B10:$F10))</f>
-        <v>1</v>
+        <v>1.4101241</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L11" si="13">(E10-MIN($B10:$F10))/(MAX($B10:$F10)-MIN($B10:$F10))</f>
-        <v>0</v>
+        <v>1.0399676</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M11" si="14">(F10-MIN($B10:$F10))/(MAX($B10:$F10)-MIN($B10:$F10))</f>
-        <v>0.87326036419730557</v>
+        <v>1.1410818</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2159,24 +3525,19 @@
         <v>12</v>
       </c>
       <c r="I11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.4479399</v>
       </c>
       <c r="J11">
-        <f t="shared" si="11"/>
-        <v>0.13432780016533558</v>
+        <v>0.4936526</v>
       </c>
       <c r="K11">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.78769789999999995</v>
       </c>
       <c r="L11">
-        <f t="shared" si="13"/>
-        <v>3.7230534797016421E-2</v>
+        <v>0.46067130000000001</v>
       </c>
       <c r="M11">
-        <f t="shared" si="14"/>
-        <v>0.37570773991912221</v>
+        <v>0.45587480000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2189,14 +3550,14 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2253,24 +3614,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>(B15-MIN($B15:$F15))/(MAX($B15:$F15)-MIN($B15:$F15))</f>
-        <v>0</v>
+        <v>343.47451228</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15" si="15">(C15-MIN($B15:$F15))/(MAX($B15:$F15)-MIN($B15:$F15))</f>
-        <v>5.2248753841986406E-2</v>
+        <v>427.86097452000001</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15" si="16">(D15-MIN($B15:$F15))/(MAX($B15:$F15)-MIN($B15:$F15))</f>
-        <v>3.5389395350670108E-2</v>
+        <v>400.17674979999998</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15" si="17">(E15-MIN($B15:$F15))/(MAX($B15:$F15)-MIN($B15:$F15))</f>
-        <v>7.5218897356021747E-2</v>
+        <v>465.57952799999998</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15" si="18">(F15-MIN($B15:$F15))/(MAX($B15:$F15)-MIN($B15:$F15))</f>
-        <v>1</v>
+        <v>1842.5107162500001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,24 +3652,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I17" si="19">(B16-MIN($B16:$F16))/(MAX($B16:$F16)-MIN($B16:$F16))</f>
-        <v>0</v>
+        <v>2.2880270000000001E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J17" si="20">(C16-MIN($B16:$F16))/(MAX($B16:$F16)-MIN($B16:$F16))</f>
-        <v>7.1488253225645421E-2</v>
+        <v>2.5618129999999999E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K17" si="21">(D16-MIN($B16:$F16))/(MAX($B16:$F16)-MIN($B16:$F16))</f>
-        <v>9.31848252204108E-2</v>
+        <v>2.6459199999999999E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L17" si="22">(E16-MIN($B16:$F16))/(MAX($B16:$F16)-MIN($B16:$F16))</f>
-        <v>8.2837892114842465E-2</v>
+        <v>2.6058100000000001E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M17" si="23">(F16-MIN($B16:$F16))/(MAX($B16:$F16)-MIN($B16:$F16))</f>
-        <v>1</v>
+        <v>5.9010180000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2339,24 +3690,19 @@
         <v>12</v>
       </c>
       <c r="I17">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.31025700000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="20"/>
-        <v>9.8784075971060287E-2</v>
+        <v>0.34627860999999999</v>
       </c>
       <c r="K17">
-        <f t="shared" si="21"/>
-        <v>6.809135219705903E-2</v>
+        <v>0.33488849999999998</v>
       </c>
       <c r="L17">
-        <f t="shared" si="22"/>
-        <v>0.13904529197161816</v>
+        <v>0.36121959999999997</v>
       </c>
       <c r="M17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.65597715999999995</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,14 +3714,14 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -2393,20 +3739,20 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>22</v>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,24 +3778,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>(B21-MIN($B21:$F21))/(MAX($B21:$F21)-MIN($B21:$F21))</f>
-        <v>1.4528561048790745E-2</v>
+        <v>7.6661400000000005E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="24">(C21-MIN($B21:$F21))/(MAX($B21:$F21)-MIN($B21:$F21))</f>
-        <v>1.5546548582345427E-2</v>
+        <v>7.7646259999999995E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21" si="25">(D21-MIN($B21:$F21))/(MAX($B21:$F21)-MIN($B21:$F21))</f>
-        <v>0</v>
+        <v>6.2605629999999995E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21" si="26">(E21-MIN($B21:$F21))/(MAX($B21:$F21)-MIN($B21:$F21))</f>
-        <v>9.869619948908985E-2</v>
+        <v>0.15809003999999999</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21" si="27">(F21-MIN($B21:$F21))/(MAX($B21:$F21)-MIN($B21:$F21))</f>
-        <v>1</v>
+        <v>0.99136389000000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,24 +3816,19 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="28">(B22-MIN($B22:$F22))/(MAX($B22:$F22)-MIN($B22:$F22))</f>
-        <v>7.3447880653073325E-2</v>
+        <v>2.1144949999999999E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J23" si="29">(C22-MIN($B22:$F22))/(MAX($B22:$F22)-MIN($B22:$F22))</f>
-        <v>7.5252911437413833E-2</v>
+        <v>2.1270440000000002E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K23" si="30">(D22-MIN($B22:$F22))/(MAX($B22:$F22)-MIN($B22:$F22))</f>
-        <v>0</v>
+        <v>1.603868E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L23" si="31">(E22-MIN($B22:$F22))/(MAX($B22:$F22)-MIN($B22:$F22))</f>
-        <v>0.16277885273169668</v>
+        <v>2.735545E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M23" si="32">(F22-MIN($B22:$F22))/(MAX($B22:$F22)-MIN($B22:$F22))</f>
-        <v>1</v>
+        <v>8.388168E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2518,95 +3854,121 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="28"/>
-        <v>3.9431555968177129E-2</v>
+        <v>0.73121190000000003</v>
       </c>
       <c r="J23">
-        <f t="shared" si="29"/>
-        <v>4.2052994526966134E-2</v>
+        <v>0.73589378999999999</v>
       </c>
       <c r="K23">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.66078713</v>
       </c>
       <c r="L23">
-        <f t="shared" si="31"/>
-        <v>0.21794843167661762</v>
+        <v>1.05004309</v>
       </c>
       <c r="M23">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <v>2.4003844000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="24">
-        <f>AVERAGE(I4:I24)</f>
-        <v>5.0718061091245104E-2</v>
-      </c>
-      <c r="J25" s="24">
-        <f>AVERAGE(J13:J24)</f>
-        <v>5.9228922930902921E-2</v>
-      </c>
-      <c r="K25" s="24">
-        <f>AVERAGE(K13:K24)</f>
-        <v>3.2777595461356661E-2</v>
-      </c>
-      <c r="L25" s="24">
-        <f>AVERAGE(L13:L24)</f>
-        <v>0.12942092755664777</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="H26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="24">
-        <f>_xlfn.STDEV.P(I13:I24)</f>
-        <v>2.7249010847286297E-2</v>
-      </c>
-      <c r="J26" s="24">
-        <f>_xlfn.STDEV.P(J13:J24)</f>
-        <v>2.653159947665298E-2</v>
-      </c>
-      <c r="K26" s="24">
-        <f>_xlfn.STDEV.P(K13:K24)</f>
-        <v>3.6801332886410479E-2</v>
-      </c>
-      <c r="L26" s="24">
-        <f>_xlfn.STDEV.P(L13:L24)</f>
-        <v>5.0156998068988379E-2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="25">
-        <f>(I26/I25)*100</f>
-        <v>53.726444309973807</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" ref="J27:L27" si="33">(J26/J25)*100</f>
-        <v>44.795005824443273</v>
-      </c>
-      <c r="K27" s="25">
-        <f t="shared" si="33"/>
-        <v>112.27587737421931</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="33"/>
-        <v>38.754936327461081</v>
-      </c>
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26D65B1-AD25-42B0-8F8D-BA40125E61D7}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -3344,12 +4706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B44AD1-764D-46D3-92D8-1E7028312D9C}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:L16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,6 +4865,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
@@ -3814,20 +5177,486 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L17" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>27.72</v>
+      </c>
+      <c r="C23" s="1">
+        <v>67.37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>27.72</v>
+      </c>
+      <c r="J23" s="1">
+        <v>67.37</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>150.91999999999999</v>
+      </c>
+      <c r="J24" s="15">
+        <v>199.86</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="J25" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>150.91999999999999</v>
+      </c>
+      <c r="C27" s="15">
+        <v>199.86</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1">
+        <f>AVERAGE(I23:I26)</f>
+        <v>68.74499999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <f>AVERAGE(J23:J26)</f>
+        <v>100.33000000000001</v>
+      </c>
+      <c r="K27" s="1">
+        <f>AVERAGE(K23:K26)</f>
+        <v>0.1275</v>
+      </c>
+      <c r="L27" s="1">
+        <f>AVERAGE(L23:L26)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <f>AVERAGE(M23:M26)</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="24">
+        <f>_xlfn.STDEV.P(I23:I26)</f>
+        <v>52.733939972279707</v>
+      </c>
+      <c r="J28" s="24">
+        <f>_xlfn.STDEV.P(J23:J26)</f>
+        <v>57.482195069429963</v>
+      </c>
+      <c r="K28" s="24">
+        <f>_xlfn.STDEV.P(K23:K26)</f>
+        <v>3.7666297933298405E-2</v>
+      </c>
+      <c r="L28" s="24">
+        <f>_xlfn.STDEV.P(L23:L26)</f>
+        <v>1.0897247358851682E-2</v>
+      </c>
+      <c r="M28" s="24">
+        <f>_xlfn.STDEV.P(M23:M26)</f>
+        <v>2.5860201081971519E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="36">
+        <f>I28/I27</f>
+        <v>0.76709491559065701</v>
+      </c>
+      <c r="J29" s="36">
+        <f t="shared" ref="J29:M29" si="2">J28/J27</f>
+        <v>0.57293127747862016</v>
+      </c>
+      <c r="K29" s="36">
+        <f t="shared" si="2"/>
+        <v>0.29542194457488946</v>
+      </c>
+      <c r="L29" s="36">
+        <f t="shared" si="2"/>
+        <v>0.39626354032187933</v>
+      </c>
+      <c r="M29" s="36">
+        <f t="shared" si="2"/>
+        <v>0.44974262751254812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="C31" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="3">
+        <v>22</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="3">
+        <v>93</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="3">
+        <v>25</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="47"/>
+      <c r="H36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="4">
+        <v>24</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AD4AF4-60D5-4174-9A89-6E70EDAA4086}">
   <dimension ref="A2:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B9" sqref="B9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,7 +5745,7 @@
       <c r="H3" s="38">
         <v>2591248416.1967802</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="49" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -3965,7 +5794,7 @@
       <c r="H4" s="39">
         <v>6.0833459999999999E-3</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4010,7 +5839,7 @@
       <c r="H5" s="40">
         <v>0.46002805299999999</v>
       </c>
-      <c r="J5" s="48"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="35" t="s">
         <v>7</v>
       </c>
@@ -4055,7 +5884,7 @@
       <c r="H6" s="38">
         <v>2.2413943000000001</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -4104,7 +5933,7 @@
       <c r="H7" s="39">
         <v>1.3632105999999999</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4149,7 +5978,7 @@
       <c r="H8" s="40">
         <v>0.57564280000000001</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
@@ -4175,26 +6004,26 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="38">
         <v>342.06493172</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="38">
         <v>427.86097452000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="38">
         <v>400.17674979999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="38">
         <v>465.57952799999998</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="38">
         <v>1984.1336221900001</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -4222,28 +6051,28 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="39">
         <v>2.284688E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="39">
         <v>2.5618129999999999E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="39">
         <v>2.6459199999999999E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="39">
         <v>2.6058100000000001E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="39">
         <v>6.1611989999999998E-2</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
@@ -4269,26 +6098,26 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="40">
         <v>0.30961970999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="40">
         <v>0.34627860999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="40">
         <v>0.33488849999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="40">
         <v>0.36121959999999997</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="40">
         <v>0.68072102000000001</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
@@ -4314,26 +6143,26 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="39">
         <v>7.6661400000000005E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="39">
         <v>7.7646259999999995E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="39">
         <v>6.2605629999999995E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="39">
         <v>0.15809003999999999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="39">
         <v>1.0300634500000001</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -4361,28 +6190,28 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="39">
         <v>2.1144949999999999E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="39">
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="39">
         <v>1.603868E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="39">
         <v>2.735545E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="39">
         <v>8.5561040000000005E-2</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="3" t="s">
         <v>1</v>
       </c>
@@ -4408,26 +6237,26 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="40">
         <v>0.73121190000000003</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="40">
         <v>0.73589378999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="40">
         <v>0.66078713</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="40">
         <v>1.05004309</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="40">
         <v>2.4467874100000002</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="35" t="s">
         <v>7</v>
       </c>

--- a/fuzzy-ts-opt/Results/Results.xlsx
+++ b/fuzzy-ts-opt/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1857459-CA00-4B0B-AFCF-98B42BE65783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE8761-E5B1-42B2-BF6F-B698B72331E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelas finalizadas_01" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="71">
   <si>
     <t>MSE</t>
   </si>
@@ -240,6 +240,18 @@
   <si>
     <t>CORRETO</t>
   </si>
+  <si>
+    <t>Tempo computacional</t>
+  </si>
+  <si>
+    <t>Desempenho geral dos modelos</t>
+  </si>
+  <si>
+    <t>Descrição das TS</t>
+  </si>
+  <si>
+    <t>Desempenho normalizado</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,6 +571,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,17 +882,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q41"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -867,6 +909,16 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="J1" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="62"/>
+    </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>23</v>
@@ -1495,6 +1547,9 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="69" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="15" t="s">
         <v>26</v>
@@ -1521,6 +1576,24 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="23" t="s">
         <v>27</v>
@@ -1546,46 +1619,69 @@
         <v>102.92048433813309</v>
       </c>
     </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27.72</v>
+      </c>
+      <c r="D18" s="1">
+        <v>67.37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="15">
+        <v>150.91999999999999</v>
+      </c>
+      <c r="D19" s="15">
+        <v>199.86</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="62"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="43">
-        <v>4.8077179999999999E-3</v>
-      </c>
-      <c r="D20" s="43">
-        <v>4.1260580000000002E-3</v>
-      </c>
-      <c r="E20" s="43">
-        <v>3.3633180000000001E-3</v>
-      </c>
-      <c r="F20" s="43">
-        <v>1.174243E-2</v>
-      </c>
-      <c r="G20" s="43">
-        <v>6.0833459999999999E-3</v>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="D20" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.05</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>30</v>
@@ -1605,23 +1701,23 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="43">
-        <v>1.0758380000000001</v>
-      </c>
-      <c r="D21" s="43">
-        <v>1.234173</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1.4101241</v>
-      </c>
-      <c r="F21" s="43">
-        <v>1.0399676</v>
-      </c>
-      <c r="G21" s="43">
-        <v>1.1410818</v>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.03</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1641,23 +1737,28 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="43">
-        <v>2.2880270000000001E-2</v>
-      </c>
-      <c r="D22" s="43">
-        <v>2.5618129999999999E-2</v>
-      </c>
-      <c r="E22" s="43">
-        <v>2.6459199999999999E-2</v>
-      </c>
-      <c r="F22" s="43">
-        <v>2.6058100000000001E-2</v>
-      </c>
-      <c r="G22" s="43">
-        <v>5.9010180000000002E-2</v>
+      <c r="B22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <f>AVERAGE(C18:C21)</f>
+        <v>68.74499999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <f>AVERAGE(D18:D21)</f>
+        <v>100.33000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <f>AVERAGE(E18:E21)</f>
+        <v>0.1275</v>
+      </c>
+      <c r="F22" s="1">
+        <f>AVERAGE(F18:F21)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f>AVERAGE(G18:G21)</f>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>52</v>
@@ -1680,23 +1781,28 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="44">
-        <v>2.1144949999999999E-2</v>
-      </c>
-      <c r="D23" s="44">
-        <v>2.1270440000000002E-2</v>
-      </c>
-      <c r="E23" s="44">
-        <v>1.603868E-2</v>
-      </c>
-      <c r="F23" s="44">
-        <v>2.735545E-2</v>
-      </c>
-      <c r="G23" s="44">
-        <v>8.388168E-2</v>
+      <c r="B23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="24">
+        <f>_xlfn.STDEV.P(C18:C21)</f>
+        <v>52.733939972279707</v>
+      </c>
+      <c r="D23" s="24">
+        <f>_xlfn.STDEV.P(D18:D21)</f>
+        <v>57.482195069429963</v>
+      </c>
+      <c r="E23" s="24">
+        <f>_xlfn.STDEV.P(E18:E21)</f>
+        <v>3.7666297933298405E-2</v>
+      </c>
+      <c r="F23" s="24">
+        <f>_xlfn.STDEV.P(F18:F21)</f>
+        <v>1.0897247358851682E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <f>_xlfn.STDEV.P(G18:G21)</f>
+        <v>2.5860201081971519E-2</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>19</v>
@@ -1716,6 +1822,29 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="36">
+        <f>C23/C22</f>
+        <v>0.76709491559065701</v>
+      </c>
+      <c r="D24" s="36">
+        <f t="shared" ref="D24:G24" si="31">D23/D22</f>
+        <v>0.57293127747862016</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="31"/>
+        <v>0.29542194457488946</v>
+      </c>
+      <c r="F24" s="36">
+        <f t="shared" si="31"/>
+        <v>0.39626354032187933</v>
+      </c>
+      <c r="G24" s="36">
+        <f t="shared" si="31"/>
+        <v>0.44974262751254812</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1738,279 +1867,1031 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="J27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="O27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1">
-        <v>27.72</v>
-      </c>
-      <c r="D27" s="1">
-        <v>67.37</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="K28" s="43">
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="L28" s="43">
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="M28" s="43">
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="N28" s="43">
+        <v>1.174243E-2</v>
+      </c>
+      <c r="O28" s="43">
+        <v>6.0833459999999999E-3</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="56">
+        <v>100</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15">
-        <v>150.91999999999999</v>
-      </c>
-      <c r="D28" s="15">
-        <v>199.86</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G28" s="15">
+      <c r="K29" s="43">
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="L29" s="43">
+        <v>1.234173</v>
+      </c>
+      <c r="M29" s="43">
+        <v>1.4101241</v>
+      </c>
+      <c r="N29" s="43">
+        <v>1.0399676</v>
+      </c>
+      <c r="O29" s="43">
+        <v>1.1410818</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="56">
+        <v>30</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="43">
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="L30" s="43">
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="M30" s="43">
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="N30" s="43">
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="O30" s="43">
+        <v>5.9010180000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1">
+        <v>300</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="44">
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="L31" s="44">
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="M31" s="44">
+        <v>1.603868E-2</v>
+      </c>
+      <c r="N31" s="44">
+        <v>2.735545E-2</v>
+      </c>
+      <c r="O31" s="44">
+        <v>8.388168E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="58">
         <v>0.1</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="D32" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="4">
+        <v>20</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="24">
+        <f>AVERAGE(K27:K31)</f>
+        <v>0.28116773449999999</v>
+      </c>
+      <c r="L32" s="24">
+        <f t="shared" ref="L32:O32" si="32">AVERAGE(L27:L31)</f>
+        <v>0.32129690700000002</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="32"/>
+        <v>0.36399632449999997</v>
+      </c>
+      <c r="N32" s="24">
+        <f>AVERAGE(N28:N31)</f>
+        <v>0.27628089499999997</v>
+      </c>
+      <c r="O32" s="24">
+        <f t="shared" si="32"/>
+        <v>0.32251425150000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="24">
+        <f>_xlfn.STDEV.P(K28:K31)</f>
+        <v>0.45885726330927057</v>
+      </c>
+      <c r="L33" s="24">
+        <f t="shared" ref="L33:O33" si="33">_xlfn.STDEV.P(L28:L31)</f>
+        <v>0.52711050281109051</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="33"/>
+        <v>0.60403752384092924</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="33"/>
+        <v>0.44095728454249777</v>
+      </c>
+      <c r="O33" s="24">
+        <f>_xlfn.STDEV.P(O28:O31)</f>
+        <v>0.4734345913879312</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="25">
+        <f>(K33/K32)*100</f>
+        <v>163.19698422198249</v>
+      </c>
+      <c r="L34" s="25">
+        <f>(L33/L32)*100</f>
+        <v>164.05713572931796</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" ref="M34:O34" si="34">(M33/M32)*100</f>
+        <v>165.94605032637611</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="34"/>
+        <v>159.60469671364638</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="34"/>
+        <v>146.79493671551168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="43">
+        <v>1607004240.46509</v>
+      </c>
+      <c r="D37" s="43">
+        <v>1313761706.7729499</v>
+      </c>
+      <c r="E37" s="43">
+        <v>851104586.22664106</v>
+      </c>
+      <c r="F37" s="43">
+        <v>8961795088.7533207</v>
+      </c>
+      <c r="G37" s="43">
+        <v>2591248416.1967802</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="43">
+        <v>1.0621752</v>
+      </c>
+      <c r="D38" s="43">
+        <v>1.2900293</v>
+      </c>
+      <c r="E38" s="43">
+        <v>3.2845518</v>
+      </c>
+      <c r="F38" s="43">
+        <v>1.1234119</v>
+      </c>
+      <c r="G38" s="43">
+        <v>1.4057341999999999</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="1">
-        <v>78.510000000000005</v>
-      </c>
-      <c r="D29" s="1">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="4">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="D30" s="4">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="C39" s="43">
+        <v>343.47451228</v>
+      </c>
+      <c r="D39" s="43">
+        <v>427.86097452000001</v>
+      </c>
+      <c r="E39" s="43">
+        <v>400.17674979999998</v>
+      </c>
+      <c r="F39" s="43">
+        <v>465.57952799999998</v>
+      </c>
+      <c r="G39" s="43">
+        <v>1842.5107162500001</v>
+      </c>
+      <c r="J39" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="73">
+        <f>RANK(K28,$K$28:$O$28,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="73">
+        <f t="shared" ref="L39:O40" si="35">RANK(L28,$K$28:$O$28,1)</f>
+        <v>2</v>
+      </c>
+      <c r="M39" s="73">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="73">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="O39" s="73">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="44">
+        <v>7.6661400000000005E-2</v>
+      </c>
+      <c r="D40" s="44">
+        <v>7.7646259999999995E-2</v>
+      </c>
+      <c r="E40" s="44">
+        <v>6.2605629999999995E-2</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0.15809003999999999</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0.99136389000000003</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="74">
+        <f>RANK(K29,$K$29:$O$29,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L40" s="74">
+        <f t="shared" ref="L40:O41" si="36">RANK(L29,$K$29:$O$29,1)</f>
+        <v>4</v>
+      </c>
+      <c r="M40" s="74">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="N40" s="74">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="74">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1">
-        <f>AVERAGE(C27:C30)</f>
-        <v>68.74499999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <f>AVERAGE(D27:D30)</f>
-        <v>100.33000000000001</v>
-      </c>
-      <c r="E31" s="1">
-        <f>AVERAGE(E27:E30)</f>
-        <v>0.1275</v>
-      </c>
-      <c r="F31" s="1">
-        <f>AVERAGE(F27:F30)</f>
-        <v>2.75E-2</v>
-      </c>
-      <c r="G31" s="1">
-        <f>AVERAGE(G27:G30)</f>
-        <v>5.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="C41" s="24">
+        <f>AVERAGE(C36:C40)</f>
+        <v>401751146.26960975</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" ref="D41" si="37">AVERAGE(D36:D40)</f>
+        <v>328440534.00040001</v>
+      </c>
+      <c r="E41" s="24">
+        <f t="shared" ref="E41" si="38">AVERAGE(E36:E40)</f>
+        <v>212776247.43763709</v>
+      </c>
+      <c r="F41" s="24">
+        <f>AVERAGE(F37:F40)</f>
+        <v>2240448888.9035878</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" ref="G41" si="39">AVERAGE(G36:G40)</f>
+        <v>647812565.27614868</v>
+      </c>
+      <c r="J41" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="74">
+        <f>RANK(K30,$K$30:$O$30,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="74">
+        <f t="shared" ref="L41:O42" si="40">RANK(L30,$K$30:$O$30,1)</f>
+        <v>2</v>
+      </c>
+      <c r="M41" s="74">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="74">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="74">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="24">
-        <f>_xlfn.STDEV.P(C27:C30)</f>
-        <v>52.733939972279707</v>
-      </c>
-      <c r="D32" s="24">
-        <f>_xlfn.STDEV.P(D27:D30)</f>
-        <v>57.482195069429963</v>
-      </c>
-      <c r="E32" s="24">
-        <f>_xlfn.STDEV.P(E27:E30)</f>
-        <v>3.7666297933298405E-2</v>
-      </c>
-      <c r="F32" s="24">
-        <f>_xlfn.STDEV.P(F27:F30)</f>
-        <v>1.0897247358851682E-2</v>
-      </c>
-      <c r="G32" s="24">
-        <f>_xlfn.STDEV.P(G27:G30)</f>
-        <v>2.5860201081971519E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="C42" s="24">
+        <f>_xlfn.STDEV.P(C37:C40)</f>
+        <v>695853198.37540388</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" ref="D42:G42" si="41">_xlfn.STDEV.P(D37:D40)</f>
+        <v>568875444.33849621</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" si="41"/>
+        <v>368539038.23123395</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="41"/>
+        <v>3880571037.7999163</v>
+      </c>
+      <c r="G42" s="24">
+        <f>_xlfn.STDEV.P(G37:G40)</f>
+        <v>1122043211.6820478</v>
+      </c>
+      <c r="J42" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="75">
+        <f>RANK(K31,$K$31:$O$31,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L42" s="75">
+        <f t="shared" ref="L42:O42" si="42">RANK(L31,$K$31:$O$31,1)</f>
+        <v>3</v>
+      </c>
+      <c r="M42" s="75">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="75">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O42" s="75">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="36">
-        <f>C32/C31</f>
-        <v>0.76709491559065701</v>
-      </c>
-      <c r="D33" s="36">
-        <f t="shared" ref="D33:G33" si="31">D32/D31</f>
-        <v>0.57293127747862016</v>
-      </c>
-      <c r="E33" s="36">
-        <f t="shared" si="31"/>
-        <v>0.29542194457488946</v>
-      </c>
-      <c r="F33" s="36">
-        <f t="shared" si="31"/>
-        <v>0.39626354032187933</v>
-      </c>
-      <c r="G33" s="36">
-        <f t="shared" si="31"/>
-        <v>0.44974262751254812</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="56">
-        <v>100</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="56">
-        <v>30</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="4"/>
+      <c r="C43" s="25">
+        <f>(C42/C41)*100</f>
+        <v>173.20503123304749</v>
+      </c>
+      <c r="D43" s="25">
+        <f>(D42/D41)*100</f>
+        <v>173.20500530479694</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" ref="E43:G43" si="43">(E42/E41)*100</f>
+        <v>173.20497126412081</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="43"/>
+        <v>173.20506872615863</v>
+      </c>
+      <c r="G43" s="25">
+        <f t="shared" si="43"/>
+        <v>173.20491633312866</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="24">
+        <f>AVERAGE(K38:K42)</f>
+        <v>2</v>
+      </c>
+      <c r="L43" s="24">
+        <f t="shared" ref="L43" si="44">AVERAGE(L38:L42)</f>
+        <v>2.75</v>
+      </c>
+      <c r="M43" s="24">
+        <f t="shared" ref="M43" si="45">AVERAGE(M38:M42)</f>
+        <v>2.75</v>
+      </c>
+      <c r="N43" s="24">
+        <f>AVERAGE(N39:N42)</f>
+        <v>3.25</v>
+      </c>
+      <c r="O43" s="24">
+        <f t="shared" ref="O43" si="46">AVERAGE(O38:O42)</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="24">
+        <f>_xlfn.STDEV.P(K39:K42)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="L44" s="24">
+        <f t="shared" ref="L44:O44" si="47">_xlfn.STDEV.P(L39:L42)</f>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="M44" s="24">
+        <f t="shared" si="47"/>
+        <v>1.7853571071357126</v>
+      </c>
+      <c r="N44" s="24">
+        <f t="shared" si="47"/>
+        <v>1.479019945774904</v>
+      </c>
+      <c r="O44" s="24">
+        <f>_xlfn.STDEV.P(O39:O42)</f>
+        <v>0.82915619758884995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J45" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="25">
+        <f>(K44/K43)*100</f>
+        <v>35.355339059327378</v>
+      </c>
+      <c r="L45" s="25">
+        <f>(L44/L43)*100</f>
+        <v>30.151134457776362</v>
+      </c>
+      <c r="M45" s="25">
+        <f t="shared" ref="M45:O45" si="48">(M44/M43)*100</f>
+        <v>64.922076623116823</v>
+      </c>
+      <c r="N45" s="25">
+        <f t="shared" si="48"/>
+        <v>45.508306023843204</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" si="48"/>
+        <v>19.509557590325883</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="73">
+        <f>RANK(C37,$C$37:$G$37,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D48" s="73">
+        <f t="shared" ref="D48:G51" si="49">RANK(D37,$C$37:$G$37,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E48" s="73">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="73">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="G48" s="73">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="74">
+        <f>RANK(C38,$C$38:$G$38,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="74">
+        <f t="shared" ref="D49:G49" si="50">RANK(D38,$C$38:$G$38,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E49" s="74">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="F49" s="74">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="74">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="74">
+        <f>RANK(C39,$C$39:$G$39,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="74">
+        <f t="shared" ref="D50:G50" si="51">RANK(D39,$C$39:$G$39,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E50" s="74">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="74">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="G50" s="74">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="75">
+        <f>RANK(C40,$C$40:$G$40,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" ref="D51:G51" si="52">RANK(D40,$C$40:$G$40,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E51" s="75">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="75">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="G51" s="75">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="24">
+        <f>AVERAGE(C47:C51)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D52" s="24">
+        <f t="shared" ref="D52" si="53">AVERAGE(D47:D51)</f>
+        <v>2.75</v>
+      </c>
+      <c r="E52" s="24">
+        <f t="shared" ref="E52" si="54">AVERAGE(E47:E51)</f>
+        <v>2.25</v>
+      </c>
+      <c r="F52" s="24">
+        <f>AVERAGE(F48:F51)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G52" s="24">
+        <f t="shared" ref="G52" si="55">AVERAGE(G47:G51)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="24">
+        <f>_xlfn.STDEV.P(C48:C51)</f>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="D53" s="24">
+        <f t="shared" ref="D53:G53" si="56">_xlfn.STDEV.P(D48:D51)</f>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="E53" s="24">
+        <f t="shared" si="56"/>
+        <v>1.6393596310755001</v>
+      </c>
+      <c r="F53" s="24">
+        <f t="shared" si="56"/>
+        <v>1.0897247358851685</v>
+      </c>
+      <c r="G53" s="24">
+        <f>_xlfn.STDEV.P(G48:G51)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="25">
+        <f>(C53/C52)*100</f>
+        <v>47.380354147934284</v>
+      </c>
+      <c r="D54" s="25">
+        <f>(D53/D52)*100</f>
+        <v>15.745916432444337</v>
+      </c>
+      <c r="E54" s="25">
+        <f t="shared" ref="E54:G54" si="57">(E53/E52)*100</f>
+        <v>72.860428047800013</v>
+      </c>
+      <c r="F54" s="25">
+        <f t="shared" si="57"/>
+        <v>29.059326290271159</v>
+      </c>
+      <c r="G54" s="25">
+        <f t="shared" si="57"/>
+        <v>11.111111111111111</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L3:P3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:P4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:P5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:P6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:P7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:P8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:P9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:P10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:P11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:P12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:P13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:P14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:P15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:O32">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:O43">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:G41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:G52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4710,7 +5591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B44AD1-764D-46D3-92D8-1E7028312D9C}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:M29"/>
     </sheetView>
   </sheetViews>
@@ -5745,7 +6626,7 @@
       <c r="H3" s="38">
         <v>2591248416.1967802</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -5794,7 +6675,7 @@
       <c r="H4" s="39">
         <v>6.0833459999999999E-3</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5839,7 +6720,7 @@
       <c r="H5" s="40">
         <v>0.46002805299999999</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="35" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +6765,7 @@
       <c r="H6" s="38">
         <v>2.2413943000000001</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="67" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -5933,7 +6814,7 @@
       <c r="H7" s="39">
         <v>1.3632105999999999</v>
       </c>
-      <c r="J7" s="50"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
@@ -5978,7 +6859,7 @@
       <c r="H8" s="40">
         <v>0.57564280000000001</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
@@ -6023,7 +6904,7 @@
       <c r="H9" s="38">
         <v>1984.1336221900001</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="66" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -6072,7 +6953,7 @@
       <c r="H10" s="39">
         <v>6.1611989999999998E-2</v>
       </c>
-      <c r="J10" s="50"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
@@ -6117,7 +6998,7 @@
       <c r="H11" s="40">
         <v>0.68072102000000001</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
@@ -6162,7 +7043,7 @@
       <c r="H12" s="39">
         <v>1.0300634500000001</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="66" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -6211,7 +7092,7 @@
       <c r="H13" s="39">
         <v>8.5561040000000005E-2</v>
       </c>
-      <c r="J13" s="50"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="3" t="s">
         <v>1</v>
       </c>
@@ -6256,7 +7137,7 @@
       <c r="H14" s="40">
         <v>2.4467874100000002</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="35" t="s">
         <v>7</v>
       </c>

--- a/fuzzy-ts-opt/Results/Results.xlsx
+++ b/fuzzy-ts-opt/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\fuzzy-ts-opt\fuzzy-ts-opt\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE8761-E5B1-42B2-BF6F-B698B72331E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA79A58-D78A-4E94-AF3F-6DA28F812A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="-120" windowWidth="19575" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="71">
   <si>
     <t>MSE</t>
   </si>
@@ -386,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,15 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -599,6 +590,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P17" sqref="J2:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,11 +931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="62"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="68" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="62"/>
@@ -996,7 +1017,7 @@
         <f t="shared" ref="M3:P3" si="0">(E3-MIN($D3:$H3))/(MAX($D3:$H3)-MIN($D3:$H3))</f>
         <v>5.7042876978498906E-2</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1045,7 +1066,7 @@
         <f t="shared" ref="M4:P4" si="1">E4</f>
         <v>4.1260580000000002E-3</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="80">
         <f t="shared" si="1"/>
         <v>3.3633180000000001E-3</v>
       </c>
@@ -1090,7 +1111,7 @@
         <f t="shared" ref="M5" si="2">E5</f>
         <v>0.36622087599999997</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="81">
         <f t="shared" ref="N5" si="3">F5</f>
         <v>0.29476523700000001</v>
       </c>
@@ -1127,7 +1148,7 @@
       <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="79">
         <f>(D6-MIN($D6:$H6))/(MAX($D6:$H6)-MIN($D6:$H6))</f>
         <v>0</v>
       </c>
@@ -1188,7 +1209,7 @@
         <f t="shared" ref="N7:N8" si="11">F7</f>
         <v>1.4101241</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="80">
         <f t="shared" ref="O7:O8" si="12">G7</f>
         <v>1.0399676</v>
       </c>
@@ -1221,7 +1242,7 @@
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="81">
         <f>D8</f>
         <v>0.4479399</v>
       </c>
@@ -1266,7 +1287,7 @@
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="79">
         <f>(D9-MIN($D9:$H9))/(MAX($D9:$H9)-MIN($D9:$H9))</f>
         <v>0</v>
       </c>
@@ -1315,7 +1336,7 @@
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="80">
         <f>D10</f>
         <v>2.2880270000000001E-2</v>
       </c>
@@ -1360,7 +1381,7 @@
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="81">
         <f>D11</f>
         <v>0.31025700000000001</v>
       </c>
@@ -1413,7 +1434,7 @@
         <f t="shared" ref="M12" si="22">(E12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>1.6194343186783606E-2</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="79">
         <f t="shared" ref="N12" si="23">(F12-MIN($D12:$H12))/(MAX($D12:$H12)-MIN($D12:$H12))</f>
         <v>0</v>
       </c>
@@ -1462,7 +1483,7 @@
         <f t="shared" ref="M13:M14" si="26">E13</f>
         <v>2.1270440000000002E-2</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="80">
         <f t="shared" ref="N13:N14" si="27">F13</f>
         <v>1.603868E-2</v>
       </c>
@@ -1507,7 +1528,7 @@
         <f t="shared" si="26"/>
         <v>0.73589378999999999</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="81">
         <f t="shared" si="27"/>
         <v>0.66078713</v>
       </c>
@@ -1525,7 +1546,7 @@
       <c r="K15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="82">
         <f>AVERAGE(L3:L14)</f>
         <v>0.26062061016646026</v>
       </c>
@@ -1547,7 +1568,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>67</v>
       </c>
       <c r="J16" s="3"/>
@@ -1658,7 +1679,7 @@
       <c r="G19" s="15">
         <v>0.1</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="69" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="62"/>
@@ -1870,7 +1891,7 @@
       <c r="B26" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="69" t="s">
         <v>1</v>
       </c>
       <c r="Q26" s="1"/>
@@ -2041,7 +2062,7 @@
       <c r="C32" s="58">
         <v>0.1</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="4">
@@ -2080,7 +2101,7 @@
         <v>0.45885726330927057</v>
       </c>
       <c r="L33" s="24">
-        <f t="shared" ref="L33:O33" si="33">_xlfn.STDEV.P(L28:L31)</f>
+        <f t="shared" ref="L33:N33" si="33">_xlfn.STDEV.P(L28:L31)</f>
         <v>0.52711050281109051</v>
       </c>
       <c r="M33" s="24">
@@ -2122,7 +2143,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="69" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2165,7 +2186,7 @@
       <c r="G37" s="43">
         <v>2591248416.1967802</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="69" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2229,23 +2250,23 @@
       <c r="J39" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="70">
         <f>RANK(K28,$K$28:$O$28,1)</f>
         <v>3</v>
       </c>
-      <c r="L39" s="73">
-        <f t="shared" ref="L39:O40" si="35">RANK(L28,$K$28:$O$28,1)</f>
+      <c r="L39" s="70">
+        <f t="shared" ref="L39:O39" si="35">RANK(L28,$K$28:$O$28,1)</f>
         <v>2</v>
       </c>
-      <c r="M39" s="73">
+      <c r="M39" s="70">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="70">
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="70">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
@@ -2272,23 +2293,23 @@
       <c r="J40" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="74">
+      <c r="K40" s="71">
         <f>RANK(K29,$K$29:$O$29,1)</f>
         <v>2</v>
       </c>
-      <c r="L40" s="74">
-        <f t="shared" ref="L40:O41" si="36">RANK(L29,$K$29:$O$29,1)</f>
+      <c r="L40" s="71">
+        <f t="shared" ref="L40:O40" si="36">RANK(L29,$K$29:$O$29,1)</f>
         <v>4</v>
       </c>
-      <c r="M40" s="74">
+      <c r="M40" s="71">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="N40" s="74">
+      <c r="N40" s="71">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="O40" s="74">
+      <c r="O40" s="71">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
@@ -2320,23 +2341,23 @@
       <c r="J41" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="74">
+      <c r="K41" s="71">
         <f>RANK(K30,$K$30:$O$30,1)</f>
         <v>1</v>
       </c>
-      <c r="L41" s="74">
-        <f t="shared" ref="L41:O42" si="40">RANK(L30,$K$30:$O$30,1)</f>
+      <c r="L41" s="71">
+        <f t="shared" ref="L41:O41" si="40">RANK(L30,$K$30:$O$30,1)</f>
         <v>2</v>
       </c>
-      <c r="M41" s="74">
+      <c r="M41" s="71">
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N41" s="74">
+      <c r="N41" s="71">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="O41" s="74">
+      <c r="O41" s="71">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>695853198.37540388</v>
       </c>
       <c r="D42" s="24">
-        <f t="shared" ref="D42:G42" si="41">_xlfn.STDEV.P(D37:D40)</f>
+        <f t="shared" ref="D42:F42" si="41">_xlfn.STDEV.P(D37:D40)</f>
         <v>568875444.33849621</v>
       </c>
       <c r="E42" s="24">
@@ -2368,23 +2389,23 @@
       <c r="J42" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="75">
+      <c r="K42" s="72">
         <f>RANK(K31,$K$31:$O$31,1)</f>
         <v>2</v>
       </c>
-      <c r="L42" s="75">
+      <c r="L42" s="72">
         <f t="shared" ref="L42:O42" si="42">RANK(L31,$K$31:$O$31,1)</f>
         <v>3</v>
       </c>
-      <c r="M42" s="75">
+      <c r="M42" s="72">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="N42" s="75">
+      <c r="N42" s="72">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="O42" s="75">
+      <c r="O42" s="72">
         <f t="shared" si="42"/>
         <v>5</v>
       </c>
@@ -2446,7 +2467,7 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L44" s="24">
-        <f t="shared" ref="L44:O44" si="47">_xlfn.STDEV.P(L39:L42)</f>
+        <f t="shared" ref="L44:N44" si="47">_xlfn.STDEV.P(L39:L42)</f>
         <v>0.82915619758884995</v>
       </c>
       <c r="M44" s="24">
@@ -2488,7 +2509,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="69" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2516,103 +2537,103 @@
       <c r="B48" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="70">
         <f>RANK(C37,$C$37:$G$37,1)</f>
         <v>3</v>
       </c>
-      <c r="D48" s="73">
-        <f t="shared" ref="D48:G51" si="49">RANK(D37,$C$37:$G$37,1)</f>
+      <c r="D48" s="70">
+        <f t="shared" ref="D48:G48" si="49">RANK(D37,$C$37:$G$37,1)</f>
         <v>2</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="70">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="70">
         <f t="shared" si="49"/>
         <v>5</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="70">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="71">
         <f>RANK(C38,$C$38:$G$38,1)</f>
         <v>1</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="71">
         <f t="shared" ref="D49:G49" si="50">RANK(D38,$C$38:$G$38,1)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="74">
+      <c r="E49" s="71">
         <f t="shared" si="50"/>
         <v>5</v>
       </c>
-      <c r="F49" s="74">
+      <c r="F49" s="71">
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
-      <c r="G49" s="74">
+      <c r="G49" s="71">
         <f t="shared" si="50"/>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="71">
         <f>RANK(C39,$C$39:$G$39,1)</f>
         <v>1</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="71">
         <f t="shared" ref="D50:G50" si="51">RANK(D39,$C$39:$G$39,1)</f>
         <v>3</v>
       </c>
-      <c r="E50" s="74">
+      <c r="E50" s="71">
         <f t="shared" si="51"/>
         <v>2</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="71">
         <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="G50" s="74">
+      <c r="G50" s="71">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="75">
+      <c r="C51" s="72">
         <f>RANK(C40,$C$40:$G$40,1)</f>
         <v>2</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="72">
         <f t="shared" ref="D51:G51" si="52">RANK(D40,$C$40:$G$40,1)</f>
         <v>3</v>
       </c>
-      <c r="E51" s="75">
+      <c r="E51" s="72">
         <f t="shared" si="52"/>
         <v>1</v>
       </c>
-      <c r="F51" s="75">
+      <c r="F51" s="72">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="G51" s="75">
+      <c r="G51" s="72">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>26</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>0.82915619758884995</v>
       </c>
       <c r="D53" s="24">
-        <f t="shared" ref="D53:G53" si="56">_xlfn.STDEV.P(D48:D51)</f>
+        <f t="shared" ref="D53:F53" si="56">_xlfn.STDEV.P(D48:D51)</f>
         <v>0.4330127018922193</v>
       </c>
       <c r="E53" s="24">
@@ -2662,7 +2683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
         <v>27</v>
       </c>
@@ -2687,8 +2708,1799 @@
         <v>11.111111111111111</v>
       </c>
     </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="62"/>
+      <c r="J56" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" s="62"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="73"/>
+      <c r="C58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1607004240.46509</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1313761706.7729499</v>
+      </c>
+      <c r="F58" s="2">
+        <v>851104586.22664106</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8961795088.7533207</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2591248416.1967802</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="41">
+        <f>(D58-MIN($D58:$H58))/(MAX($D58:$H58)-MIN($D58:$H58))</f>
+        <v>9.3197940915507455E-2</v>
+      </c>
+      <c r="M58" s="41">
+        <f t="shared" ref="M58" si="58">(E58-MIN($D58:$H58))/(MAX($D58:$H58)-MIN($D58:$H58))</f>
+        <v>5.7042876978498906E-2</v>
+      </c>
+      <c r="N58" s="41">
+        <f t="shared" ref="N58" si="59">(F58-MIN($D58:$H58))/(MAX($D58:$H58)-MIN($D58:$H58))</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="41">
+        <f t="shared" ref="O58" si="60">(G58-MIN($D58:$H58))/(MAX($D58:$H58)-MIN($D58:$H58))</f>
+        <v>1</v>
+      </c>
+      <c r="P58" s="41">
+        <f t="shared" ref="P58" si="61">(H58-MIN($D58:$H58))/(MAX($D58:$H58)-MIN($D58:$H58))</f>
+        <v>0.21454940604971195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.174243E-2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6.0833459999999999E-3</v>
+      </c>
+      <c r="J59" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" s="37">
+        <f>D59</f>
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="M59" s="37">
+        <f t="shared" ref="M59:M60" si="62">E59</f>
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="N59" s="37">
+        <f t="shared" ref="N59:N60" si="63">F59</f>
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" ref="O59:O60" si="64">G59</f>
+        <v>1.174243E-2</v>
+      </c>
+      <c r="P59" s="37">
+        <f t="shared" ref="P59:P60" si="65">H59</f>
+        <v>6.0833459999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="75"/>
+      <c r="C60" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.40503570500000002</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.36622087599999997</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.29476523700000001</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.95649412</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.46002805299999999</v>
+      </c>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="42">
+        <f>D60</f>
+        <v>0.40503570500000002</v>
+      </c>
+      <c r="M60" s="42">
+        <f t="shared" si="62"/>
+        <v>0.36622087599999997</v>
+      </c>
+      <c r="N60" s="42">
+        <f t="shared" si="63"/>
+        <v>0.29476523700000001</v>
+      </c>
+      <c r="O60" s="42">
+        <f t="shared" si="64"/>
+        <v>0.95649412</v>
+      </c>
+      <c r="P60" s="42">
+        <f t="shared" si="65"/>
+        <v>0.46002805299999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="73"/>
+      <c r="C61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.0621752</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.2900293</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3.2845518</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.1234119</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1.4057341999999999</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="41">
+        <f>(D61-MIN($D61:$H61))/(MAX($D61:$H61)-MIN($D61:$H61))</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="41">
+        <f t="shared" ref="M61" si="66">(E61-MIN($D61:$H61))/(MAX($D61:$H61)-MIN($D61:$H61))</f>
+        <v>0.10252722243385755</v>
+      </c>
+      <c r="N61" s="41">
+        <f t="shared" ref="N61" si="67">(F61-MIN($D61:$H61))/(MAX($D61:$H61)-MIN($D61:$H61))</f>
+        <v>1</v>
+      </c>
+      <c r="O61" s="41">
+        <f t="shared" ref="O61" si="68">(G61-MIN($D61:$H61))/(MAX($D61:$H61)-MIN($D61:$H61))</f>
+        <v>2.7554600781883695E-2</v>
+      </c>
+      <c r="P61" s="41">
+        <f t="shared" ref="P61" si="69">(H61-MIN($D61:$H61))/(MAX($D61:$H61)-MIN($D61:$H61))</f>
+        <v>0.15459081057638924</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1.234173</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1.4101241</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1.0399676</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1.1410818</v>
+      </c>
+      <c r="J62" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="37">
+        <f>D62</f>
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="M62" s="37">
+        <f t="shared" ref="M62:M63" si="70">E62</f>
+        <v>1.234173</v>
+      </c>
+      <c r="N62" s="37">
+        <f t="shared" ref="N62:N63" si="71">F62</f>
+        <v>1.4101241</v>
+      </c>
+      <c r="O62" s="37">
+        <f t="shared" ref="O62:O63" si="72">G62</f>
+        <v>1.0399676</v>
+      </c>
+      <c r="P62" s="37">
+        <f t="shared" ref="P62:P63" si="73">H62</f>
+        <v>1.1410818</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="75"/>
+      <c r="C63" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.4479399</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.4936526</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.78769789999999995</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.46067130000000001</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.45587480000000002</v>
+      </c>
+      <c r="J63" s="75"/>
+      <c r="K63" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="42">
+        <f>D63</f>
+        <v>0.4479399</v>
+      </c>
+      <c r="M63" s="42">
+        <f t="shared" si="70"/>
+        <v>0.4936526</v>
+      </c>
+      <c r="N63" s="42">
+        <f t="shared" si="71"/>
+        <v>0.78769789999999995</v>
+      </c>
+      <c r="O63" s="42">
+        <f t="shared" si="72"/>
+        <v>0.46067130000000001</v>
+      </c>
+      <c r="P63" s="42">
+        <f t="shared" si="73"/>
+        <v>0.45587480000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="73"/>
+      <c r="C64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>343.47451228</v>
+      </c>
+      <c r="E64" s="2">
+        <v>427.86097452000001</v>
+      </c>
+      <c r="F64" s="2">
+        <v>400.17674979999998</v>
+      </c>
+      <c r="G64" s="2">
+        <v>465.57952799999998</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1842.5107162500001</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="41">
+        <f>(D64-MIN($D64:$H64))/(MAX($D64:$H64)-MIN($D64:$H64))</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="41">
+        <f t="shared" ref="M64" si="74">(E64-MIN($D64:$H64))/(MAX($D64:$H64)-MIN($D64:$H64))</f>
+        <v>5.6293811995009581E-2</v>
+      </c>
+      <c r="N64" s="41">
+        <f t="shared" ref="N64" si="75">(F64-MIN($D64:$H64))/(MAX($D64:$H64)-MIN($D64:$H64))</f>
+        <v>3.782579591462272E-2</v>
+      </c>
+      <c r="O64" s="41">
+        <f t="shared" ref="O64" si="76">(G64-MIN($D64:$H64))/(MAX($D64:$H64)-MIN($D64:$H64))</f>
+        <v>8.1455681588357184E-2</v>
+      </c>
+      <c r="P64" s="41">
+        <f t="shared" ref="P64" si="77">(H64-MIN($D64:$H64))/(MAX($D64:$H64)-MIN($D64:$H64))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="H65" s="3">
+        <v>5.9010180000000002E-2</v>
+      </c>
+      <c r="J65" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="37">
+        <f>D65</f>
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="M65" s="37">
+        <f t="shared" ref="M65:M66" si="78">E65</f>
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="N65" s="37">
+        <f t="shared" ref="N65:N66" si="79">F65</f>
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" ref="O65:O66" si="80">G65</f>
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="P65" s="37">
+        <f t="shared" ref="P65:P66" si="81">H65</f>
+        <v>5.9010180000000002E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="75"/>
+      <c r="C66" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.31025700000000001</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.34627860999999999</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.33488849999999998</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.36121959999999997</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.65597715999999995</v>
+      </c>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="42">
+        <f>D66</f>
+        <v>0.31025700000000001</v>
+      </c>
+      <c r="M66" s="42">
+        <f t="shared" si="78"/>
+        <v>0.34627860999999999</v>
+      </c>
+      <c r="N66" s="42">
+        <f t="shared" si="79"/>
+        <v>0.33488849999999998</v>
+      </c>
+      <c r="O66" s="42">
+        <f t="shared" si="80"/>
+        <v>0.36121959999999997</v>
+      </c>
+      <c r="P66" s="42">
+        <f t="shared" si="81"/>
+        <v>0.65597715999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="73"/>
+      <c r="C67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>7.6661400000000005E-2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>7.7646259999999995E-2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>6.2605629999999995E-2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.15809003999999999</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.99136389000000003</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" s="41">
+        <f>(D67-MIN($D67:$H67))/(MAX($D67:$H67)-MIN($D67:$H67))</f>
+        <v>1.5133938082015021E-2</v>
+      </c>
+      <c r="M67" s="41">
+        <f t="shared" ref="M67" si="82">(E67-MIN($D67:$H67))/(MAX($D67:$H67)-MIN($D67:$H67))</f>
+        <v>1.6194343186783606E-2</v>
+      </c>
+      <c r="N67" s="41">
+        <f t="shared" ref="N67" si="83">(F67-MIN($D67:$H67))/(MAX($D67:$H67)-MIN($D67:$H67))</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="41">
+        <f t="shared" ref="O67" si="84">(G67-MIN($D67:$H67))/(MAX($D67:$H67)-MIN($D67:$H67))</f>
+        <v>0.10280867919279661</v>
+      </c>
+      <c r="P67" s="41">
+        <f t="shared" ref="P67" si="85">(H67-MIN($D67:$H67))/(MAX($D67:$H67)-MIN($D67:$H67))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.603868E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2.735545E-2</v>
+      </c>
+      <c r="H68" s="3">
+        <v>8.388168E-2</v>
+      </c>
+      <c r="J68" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="37">
+        <f>D68</f>
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="M68" s="37">
+        <f t="shared" ref="M68:M69" si="86">E68</f>
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="N68" s="37">
+        <f t="shared" ref="N68:N69" si="87">F68</f>
+        <v>1.603868E-2</v>
+      </c>
+      <c r="O68" s="37">
+        <f t="shared" ref="O68:O69" si="88">G68</f>
+        <v>2.735545E-2</v>
+      </c>
+      <c r="P68" s="37">
+        <f t="shared" ref="P68:P69" si="89">H68</f>
+        <v>8.388168E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="75"/>
+      <c r="C69" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="40">
+        <v>0.73121190000000003</v>
+      </c>
+      <c r="E69" s="40">
+        <v>0.73589378999999999</v>
+      </c>
+      <c r="F69" s="40">
+        <v>0.66078713</v>
+      </c>
+      <c r="G69" s="40">
+        <v>1.05004309</v>
+      </c>
+      <c r="H69" s="40">
+        <v>2.4003844000000001</v>
+      </c>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="42">
+        <f>D69</f>
+        <v>0.73121190000000003</v>
+      </c>
+      <c r="M69" s="42">
+        <f t="shared" si="86"/>
+        <v>0.73589378999999999</v>
+      </c>
+      <c r="N69" s="42">
+        <f t="shared" si="87"/>
+        <v>0.66078713</v>
+      </c>
+      <c r="O69" s="42">
+        <f t="shared" si="88"/>
+        <v>1.05004309</v>
+      </c>
+      <c r="P69" s="42">
+        <f t="shared" si="89"/>
+        <v>2.4003844000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="24">
+        <f>AVERAGE(L58:L69)</f>
+        <v>0.26062061016646026</v>
+      </c>
+      <c r="M70" s="24">
+        <f>AVERAGE(M58:M69)</f>
+        <v>0.28827431321617908</v>
+      </c>
+      <c r="N70" s="24">
+        <f>AVERAGE(N58:N69)</f>
+        <v>0.38099582174288521</v>
+      </c>
+      <c r="O70" s="24">
+        <f>AVERAGE(O58:O69)</f>
+        <v>0.42878088763025307</v>
+      </c>
+      <c r="P70" s="24">
+        <f>AVERAGE(P58:P69)</f>
+        <v>0.63595513630217515</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" s="24">
+        <f>_xlfn.STDEV.P(L58:L69)</f>
+        <v>0.33514836516831298</v>
+      </c>
+      <c r="M71" s="24">
+        <f>_xlfn.STDEV.P(M58:M69)</f>
+        <v>0.36326527487340693</v>
+      </c>
+      <c r="N71" s="24">
+        <f>_xlfn.STDEV.P(N58:N69)</f>
+        <v>0.45690079882961304</v>
+      </c>
+      <c r="O71" s="24">
+        <f>_xlfn.STDEV.P(O58:O69)</f>
+        <v>0.43349301137122703</v>
+      </c>
+      <c r="P71" s="24">
+        <f>_xlfn.STDEV.P(P58:P69)</f>
+        <v>0.65452810645543313</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="25">
+        <f>(L71/L70)*100</f>
+        <v>128.59626295642977</v>
+      </c>
+      <c r="M72" s="25">
+        <f>(M71/M70)*100</f>
+        <v>126.01375086825428</v>
+      </c>
+      <c r="N72" s="25">
+        <f t="shared" ref="N72:P72" si="90">(N71/N70)*100</f>
+        <v>119.92278464879132</v>
+      </c>
+      <c r="O72" s="25">
+        <f t="shared" si="90"/>
+        <v>101.09895843702748</v>
+      </c>
+      <c r="P72" s="25">
+        <f t="shared" si="90"/>
+        <v>102.92048433813309</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>27.72</v>
+      </c>
+      <c r="D73" s="1">
+        <v>67.37</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="15">
+        <v>150.91999999999999</v>
+      </c>
+      <c r="D74" s="15">
+        <v>199.86</v>
+      </c>
+      <c r="E74" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J74" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="K74" s="62"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="D75" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="4">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D76" s="4">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="3">
+        <v>22</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <f>AVERAGE(C73:C76)</f>
+        <v>68.74499999999999</v>
+      </c>
+      <c r="D77" s="1">
+        <f>AVERAGE(D73:D76)</f>
+        <v>100.33000000000001</v>
+      </c>
+      <c r="E77" s="1">
+        <f>AVERAGE(E73:E76)</f>
+        <v>0.1275</v>
+      </c>
+      <c r="F77" s="1">
+        <f>AVERAGE(F73:F76)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <f>AVERAGE(G73:G76)</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" s="3">
+        <v>93</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="24">
+        <f>_xlfn.STDEV.P(C73:C76)</f>
+        <v>52.733939972279707</v>
+      </c>
+      <c r="D78" s="24">
+        <f>_xlfn.STDEV.P(D73:D76)</f>
+        <v>57.482195069429963</v>
+      </c>
+      <c r="E78" s="24">
+        <f>_xlfn.STDEV.P(E73:E76)</f>
+        <v>3.7666297933298405E-2</v>
+      </c>
+      <c r="F78" s="24">
+        <f>_xlfn.STDEV.P(F73:F76)</f>
+        <v>1.0897247358851682E-2</v>
+      </c>
+      <c r="G78" s="24">
+        <f>_xlfn.STDEV.P(G73:G76)</f>
+        <v>2.5860201081971519E-2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="3">
+        <v>25</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="36">
+        <f>C78/C77</f>
+        <v>0.76709491559065701</v>
+      </c>
+      <c r="D79" s="36">
+        <f t="shared" ref="D79:G79" si="91">D78/D77</f>
+        <v>0.57293127747862016</v>
+      </c>
+      <c r="E79" s="36">
+        <f t="shared" si="91"/>
+        <v>0.29542194457488946</v>
+      </c>
+      <c r="F79" s="36">
+        <f t="shared" si="91"/>
+        <v>0.39626354032187933</v>
+      </c>
+      <c r="G79" s="36">
+        <f t="shared" si="91"/>
+        <v>0.44974262751254812</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L79" s="4">
+        <v>24</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="57"/>
+      <c r="D82" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="54"/>
+      <c r="J82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J83" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="43">
+        <v>4.8077179999999999E-3</v>
+      </c>
+      <c r="L83" s="43">
+        <v>4.1260580000000002E-3</v>
+      </c>
+      <c r="M83" s="43">
+        <v>3.3633180000000001E-3</v>
+      </c>
+      <c r="N83" s="43">
+        <v>1.174243E-2</v>
+      </c>
+      <c r="O83" s="43">
+        <v>6.0833459999999999E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="56">
+        <v>100</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="43">
+        <v>1.0758380000000001</v>
+      </c>
+      <c r="L84" s="43">
+        <v>1.234173</v>
+      </c>
+      <c r="M84" s="43">
+        <v>1.4101241</v>
+      </c>
+      <c r="N84" s="43">
+        <v>1.0399676</v>
+      </c>
+      <c r="O84" s="43">
+        <v>1.1410818</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="56">
+        <v>30</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="43">
+        <v>2.2880270000000001E-2</v>
+      </c>
+      <c r="L85" s="43">
+        <v>2.5618129999999999E-2</v>
+      </c>
+      <c r="M85" s="43">
+        <v>2.6459199999999999E-2</v>
+      </c>
+      <c r="N85" s="43">
+        <v>2.6058100000000001E-2</v>
+      </c>
+      <c r="O85" s="43">
+        <v>5.9010180000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="1">
+        <v>300</v>
+      </c>
+      <c r="J86" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="44">
+        <v>2.1144949999999999E-2</v>
+      </c>
+      <c r="L86" s="44">
+        <v>2.1270440000000002E-2</v>
+      </c>
+      <c r="M86" s="44">
+        <v>1.603868E-2</v>
+      </c>
+      <c r="N86" s="44">
+        <v>2.735545E-2</v>
+      </c>
+      <c r="O86" s="44">
+        <v>8.388168E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="D87" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="4">
+        <v>20</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="24">
+        <f>AVERAGE(K82:K86)</f>
+        <v>0.28116773449999999</v>
+      </c>
+      <c r="L87" s="24">
+        <f t="shared" ref="L87:O87" si="92">AVERAGE(L82:L86)</f>
+        <v>0.32129690700000002</v>
+      </c>
+      <c r="M87" s="24">
+        <f t="shared" si="92"/>
+        <v>0.36399632449999997</v>
+      </c>
+      <c r="N87" s="24">
+        <f>AVERAGE(N83:N86)</f>
+        <v>0.27628089499999997</v>
+      </c>
+      <c r="O87" s="24">
+        <f t="shared" ref="O87:P87" si="93">AVERAGE(O82:O86)</f>
+        <v>0.32251425150000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" s="24">
+        <f>_xlfn.STDEV.P(K83:K86)</f>
+        <v>0.45885726330927057</v>
+      </c>
+      <c r="L88" s="24">
+        <f t="shared" ref="L88:N88" si="94">_xlfn.STDEV.P(L83:L86)</f>
+        <v>0.52711050281109051</v>
+      </c>
+      <c r="M88" s="24">
+        <f t="shared" si="94"/>
+        <v>0.60403752384092924</v>
+      </c>
+      <c r="N88" s="24">
+        <f t="shared" si="94"/>
+        <v>0.44095728454249777</v>
+      </c>
+      <c r="O88" s="24">
+        <f>_xlfn.STDEV.P(O83:O86)</f>
+        <v>0.4734345913879312</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J89" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="25">
+        <f>(K88/K87)*100</f>
+        <v>163.19698422198249</v>
+      </c>
+      <c r="L89" s="25">
+        <f>(L88/L87)*100</f>
+        <v>164.05713572931796</v>
+      </c>
+      <c r="M89" s="25">
+        <f t="shared" ref="M89:O89" si="95">(M88/M87)*100</f>
+        <v>165.94605032637611</v>
+      </c>
+      <c r="N89" s="25">
+        <f t="shared" si="95"/>
+        <v>159.60469671364638</v>
+      </c>
+      <c r="O89" s="25">
+        <f t="shared" si="95"/>
+        <v>146.79493671551168</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="43">
+        <v>1607004240.46509</v>
+      </c>
+      <c r="D92" s="43">
+        <v>1313761706.7729499</v>
+      </c>
+      <c r="E92" s="43">
+        <v>851104586.22664106</v>
+      </c>
+      <c r="F92" s="43">
+        <v>8961795088.7533207</v>
+      </c>
+      <c r="G92" s="43">
+        <v>2591248416.1967802</v>
+      </c>
+      <c r="J92" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="43">
+        <v>1.0621752</v>
+      </c>
+      <c r="D93" s="43">
+        <v>1.2900293</v>
+      </c>
+      <c r="E93" s="43">
+        <v>3.2845518</v>
+      </c>
+      <c r="F93" s="43">
+        <v>1.1234119</v>
+      </c>
+      <c r="G93" s="43">
+        <v>1.4057341999999999</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="43">
+        <v>343.47451228</v>
+      </c>
+      <c r="D94" s="43">
+        <v>427.86097452000001</v>
+      </c>
+      <c r="E94" s="43">
+        <v>400.17674979999998</v>
+      </c>
+      <c r="F94" s="43">
+        <v>465.57952799999998</v>
+      </c>
+      <c r="G94" s="43">
+        <v>1842.5107162500001</v>
+      </c>
+      <c r="J94" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="70">
+        <f>RANK(K83,$K$28:$O$28,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L94" s="70">
+        <f t="shared" ref="L94:O94" si="96">RANK(L83,$K$28:$O$28,1)</f>
+        <v>2</v>
+      </c>
+      <c r="M94" s="70">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="N94" s="70">
+        <f t="shared" si="96"/>
+        <v>5</v>
+      </c>
+      <c r="O94" s="70">
+        <f t="shared" si="96"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="44">
+        <v>7.6661400000000005E-2</v>
+      </c>
+      <c r="D95" s="44">
+        <v>7.7646259999999995E-2</v>
+      </c>
+      <c r="E95" s="44">
+        <v>6.2605629999999995E-2</v>
+      </c>
+      <c r="F95" s="44">
+        <v>0.15809003999999999</v>
+      </c>
+      <c r="G95" s="44">
+        <v>0.99136389000000003</v>
+      </c>
+      <c r="J95" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" s="71">
+        <f>RANK(K84,$K$29:$O$29,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L95" s="71">
+        <f t="shared" ref="L95:O95" si="97">RANK(L84,$K$29:$O$29,1)</f>
+        <v>4</v>
+      </c>
+      <c r="M95" s="71">
+        <f t="shared" si="97"/>
+        <v>5</v>
+      </c>
+      <c r="N95" s="71">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="O95" s="71">
+        <f t="shared" si="97"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="24">
+        <f>AVERAGE(C91:C95)</f>
+        <v>401751146.26960975</v>
+      </c>
+      <c r="D96" s="24">
+        <f t="shared" ref="D96:E96" si="98">AVERAGE(D91:D95)</f>
+        <v>328440534.00040001</v>
+      </c>
+      <c r="E96" s="24">
+        <f t="shared" si="98"/>
+        <v>212776247.43763709</v>
+      </c>
+      <c r="F96" s="24">
+        <f>AVERAGE(F92:F95)</f>
+        <v>2240448888.9035878</v>
+      </c>
+      <c r="G96" s="24">
+        <f t="shared" ref="G96" si="99">AVERAGE(G91:G95)</f>
+        <v>647812565.27614868</v>
+      </c>
+      <c r="J96" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="71">
+        <f>RANK(K85,$K$30:$O$30,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L96" s="71">
+        <f t="shared" ref="L96:O96" si="100">RANK(L85,$K$30:$O$30,1)</f>
+        <v>2</v>
+      </c>
+      <c r="M96" s="71">
+        <f t="shared" si="100"/>
+        <v>4</v>
+      </c>
+      <c r="N96" s="71">
+        <f t="shared" si="100"/>
+        <v>3</v>
+      </c>
+      <c r="O96" s="71">
+        <f t="shared" si="100"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="24">
+        <f>_xlfn.STDEV.P(C92:C95)</f>
+        <v>695853198.37540388</v>
+      </c>
+      <c r="D97" s="24">
+        <f t="shared" ref="D97:F97" si="101">_xlfn.STDEV.P(D92:D95)</f>
+        <v>568875444.33849621</v>
+      </c>
+      <c r="E97" s="24">
+        <f t="shared" si="101"/>
+        <v>368539038.23123395</v>
+      </c>
+      <c r="F97" s="24">
+        <f t="shared" si="101"/>
+        <v>3880571037.7999163</v>
+      </c>
+      <c r="G97" s="24">
+        <f>_xlfn.STDEV.P(G92:G95)</f>
+        <v>1122043211.6820478</v>
+      </c>
+      <c r="J97" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="72">
+        <f>RANK(K86,$K$31:$O$31,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L97" s="72">
+        <f t="shared" ref="L97:O97" si="102">RANK(L86,$K$31:$O$31,1)</f>
+        <v>3</v>
+      </c>
+      <c r="M97" s="72">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="N97" s="72">
+        <f t="shared" si="102"/>
+        <v>4</v>
+      </c>
+      <c r="O97" s="72">
+        <f t="shared" si="102"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="25">
+        <f>(C97/C96)*100</f>
+        <v>173.20503123304749</v>
+      </c>
+      <c r="D98" s="25">
+        <f>(D97/D96)*100</f>
+        <v>173.20500530479694</v>
+      </c>
+      <c r="E98" s="25">
+        <f t="shared" ref="E98:G98" si="103">(E97/E96)*100</f>
+        <v>173.20497126412081</v>
+      </c>
+      <c r="F98" s="25">
+        <f t="shared" si="103"/>
+        <v>173.20506872615863</v>
+      </c>
+      <c r="G98" s="25">
+        <f t="shared" si="103"/>
+        <v>173.20491633312866</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="24">
+        <f>AVERAGE(K93:K97)</f>
+        <v>2</v>
+      </c>
+      <c r="L98" s="24">
+        <f t="shared" ref="L98:M98" si="104">AVERAGE(L93:L97)</f>
+        <v>2.75</v>
+      </c>
+      <c r="M98" s="24">
+        <f t="shared" si="104"/>
+        <v>2.75</v>
+      </c>
+      <c r="N98" s="24">
+        <f>AVERAGE(N94:N97)</f>
+        <v>3.25</v>
+      </c>
+      <c r="O98" s="24">
+        <f t="shared" ref="O98" si="105">AVERAGE(O93:O97)</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J99" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K99" s="24">
+        <f>_xlfn.STDEV.P(K94:K97)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="L99" s="24">
+        <f t="shared" ref="L99:N99" si="106">_xlfn.STDEV.P(L94:L97)</f>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="M99" s="24">
+        <f t="shared" si="106"/>
+        <v>1.7853571071357126</v>
+      </c>
+      <c r="N99" s="24">
+        <f t="shared" si="106"/>
+        <v>1.479019945774904</v>
+      </c>
+      <c r="O99" s="24">
+        <f>_xlfn.STDEV.P(O94:O97)</f>
+        <v>0.82915619758884995</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J100" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" s="25">
+        <f>(K99/K98)*100</f>
+        <v>35.355339059327378</v>
+      </c>
+      <c r="L100" s="25">
+        <f>(L99/L98)*100</f>
+        <v>30.151134457776362</v>
+      </c>
+      <c r="M100" s="25">
+        <f t="shared" ref="M100:O100" si="107">(M99/M98)*100</f>
+        <v>64.922076623116823</v>
+      </c>
+      <c r="N100" s="25">
+        <f t="shared" si="107"/>
+        <v>45.508306023843204</v>
+      </c>
+      <c r="O100" s="25">
+        <f t="shared" si="107"/>
+        <v>19.509557590325883</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="70">
+        <f>RANK(C92,$C$37:$G$37,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D103" s="70">
+        <f t="shared" ref="D103:G103" si="108">RANK(D92,$C$37:$G$37,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E103" s="70">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="70">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="G103" s="70">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="71">
+        <f>RANK(C93,$C$38:$G$38,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D104" s="71">
+        <f t="shared" ref="D104:G104" si="109">RANK(D93,$C$38:$G$38,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E104" s="71">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
+      <c r="F104" s="71">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
+      <c r="G104" s="71">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="71">
+        <f>RANK(C94,$C$39:$G$39,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D105" s="71">
+        <f t="shared" ref="D105:G105" si="110">RANK(D94,$C$39:$G$39,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E105" s="71">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+      <c r="F105" s="71">
+        <f t="shared" si="110"/>
+        <v>4</v>
+      </c>
+      <c r="G105" s="71">
+        <f t="shared" si="110"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="72">
+        <f>RANK(C95,$C$40:$G$40,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D106" s="72">
+        <f t="shared" ref="D106:G106" si="111">RANK(D95,$C$40:$G$40,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E106" s="72">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="F106" s="72">
+        <f t="shared" si="111"/>
+        <v>4</v>
+      </c>
+      <c r="G106" s="72">
+        <f t="shared" si="111"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="24">
+        <f>AVERAGE(C102:C106)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D107" s="24">
+        <f t="shared" ref="D107:E107" si="112">AVERAGE(D102:D106)</f>
+        <v>2.75</v>
+      </c>
+      <c r="E107" s="24">
+        <f t="shared" si="112"/>
+        <v>2.25</v>
+      </c>
+      <c r="F107" s="24">
+        <f>AVERAGE(F103:F106)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G107" s="24">
+        <f t="shared" ref="G107" si="113">AVERAGE(G102:G106)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="24">
+        <f>_xlfn.STDEV.P(C103:C106)</f>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="D108" s="24">
+        <f t="shared" ref="D108:F108" si="114">_xlfn.STDEV.P(D103:D106)</f>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="E108" s="24">
+        <f t="shared" si="114"/>
+        <v>1.6393596310755001</v>
+      </c>
+      <c r="F108" s="24">
+        <f t="shared" si="114"/>
+        <v>1.0897247358851685</v>
+      </c>
+      <c r="G108" s="24">
+        <f>_xlfn.STDEV.P(G103:G106)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="25">
+        <f>(C108/C107)*100</f>
+        <v>47.380354147934284</v>
+      </c>
+      <c r="D109" s="25">
+        <f>(D108/D107)*100</f>
+        <v>15.745916432444337</v>
+      </c>
+      <c r="E109" s="25">
+        <f t="shared" ref="E109:G109" si="115">(E108/E107)*100</f>
+        <v>72.860428047800013</v>
+      </c>
+      <c r="F109" s="25">
+        <f t="shared" si="115"/>
+        <v>29.059326290271159</v>
+      </c>
+      <c r="G109" s="25">
+        <f t="shared" si="115"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:P3">
+  <conditionalFormatting sqref="K32:O32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:O43">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:G41">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2700,7 +4512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:P4">
+  <conditionalFormatting sqref="C52:G52">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2712,7 +4524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:P5">
+  <conditionalFormatting sqref="L58:P58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2724,7 +4536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:P6">
+  <conditionalFormatting sqref="L59:P59">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2736,7 +4548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:P7">
+  <conditionalFormatting sqref="L60:P60">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2748,7 +4560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:P8">
+  <conditionalFormatting sqref="L61:P61">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2760,7 +4572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:P9">
+  <conditionalFormatting sqref="L62:P62">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2772,7 +4584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:P10">
+  <conditionalFormatting sqref="L63:P63">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2784,7 +4596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:P11">
+  <conditionalFormatting sqref="L64:P64">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2796,7 +4608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:P12">
+  <conditionalFormatting sqref="L65:P65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2808,7 +4620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:P13">
+  <conditionalFormatting sqref="L66:P66">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2820,7 +4632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:P14">
+  <conditionalFormatting sqref="L67:P67">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2832,7 +4644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:P15">
+  <conditionalFormatting sqref="L68:P68">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2844,7 +4656,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:O32">
+  <conditionalFormatting sqref="L69:P69">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:P70">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2856,7 +4680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:O43">
+  <conditionalFormatting sqref="K87:O87">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2868,7 +4692,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:G41">
+  <conditionalFormatting sqref="K98:O98">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96:G96">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2880,7 +4716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:G52">
+  <conditionalFormatting sqref="C107:G107">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6626,7 +8462,7 @@
       <c r="H3" s="38">
         <v>2591248416.1967802</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -6675,7 +8511,7 @@
       <c r="H4" s="39">
         <v>6.0833459999999999E-3</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
@@ -6720,7 +8556,7 @@
       <c r="H5" s="40">
         <v>0.46002805299999999</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="35" t="s">
         <v>7</v>
       </c>
@@ -6765,7 +8601,7 @@
       <c r="H6" s="38">
         <v>2.2413943000000001</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="77" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -6814,7 +8650,7 @@
       <c r="H7" s="39">
         <v>1.3632105999999999</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
@@ -6859,7 +8695,7 @@
       <c r="H8" s="40">
         <v>0.57564280000000001</v>
       </c>
-      <c r="J8" s="68"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
@@ -6904,7 +8740,7 @@
       <c r="H9" s="38">
         <v>1984.1336221900001</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="76" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -6953,7 +8789,7 @@
       <c r="H10" s="39">
         <v>6.1611989999999998E-2</v>
       </c>
-      <c r="J10" s="67"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="3" t="s">
         <v>1</v>
       </c>
@@ -6998,7 +8834,7 @@
       <c r="H11" s="40">
         <v>0.68072102000000001</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="35" t="s">
         <v>7</v>
       </c>
@@ -7043,7 +8879,7 @@
       <c r="H12" s="39">
         <v>1.0300634500000001</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="76" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -7092,7 +8928,7 @@
       <c r="H13" s="39">
         <v>8.5561040000000005E-2</v>
       </c>
-      <c r="J13" s="67"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="3" t="s">
         <v>1</v>
       </c>
@@ -7137,7 +8973,7 @@
       <c r="H14" s="40">
         <v>2.4467874100000002</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="35" t="s">
         <v>7</v>
       </c>
